--- a/daily_betting/2022 bets.xlsx
+++ b/daily_betting/2022 bets.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96d8f57e66b541f6/Documents/GitHub/baseball model/daily_betting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="591" documentId="8_{64D840B4-FC2F-43E0-9DB7-29DD99BF8E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F23556-968D-44E0-AF7E-1996C1CEC92E}"/>
+  <xr:revisionPtr revIDLastSave="744" documentId="8_{64D840B4-FC2F-43E0-9DB7-29DD99BF8E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2445D64A-E399-4A44-B314-AD07DF703175}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E39BF201-E179-4BA7-B60E-3B50FDE30F4C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E39BF201-E179-4BA7-B60E-3B50FDE30F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="open bets" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="divisional winners" sheetId="2" r:id="rId3"/>
+    <sheet name="closed bets" sheetId="4" r:id="rId2"/>
+    <sheet name="accts" sheetId="3" r:id="rId3"/>
+    <sheet name="divisional winners" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'divisional winners'!$A$7:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'divisional winners'!$A$7:$F$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>bets</t>
   </si>
@@ -252,7 +253,43 @@
     <t>EV</t>
   </si>
   <si>
-    <t>max win / loss</t>
+    <t>current value</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>Fund</t>
+  </si>
+  <si>
+    <t>cin + 4.5 SB</t>
+  </si>
+  <si>
+    <t>odds</t>
+  </si>
+  <si>
+    <t>payout</t>
+  </si>
+  <si>
+    <t>Uzomas &lt; 25.5 yds SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">winnings </t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exp ROI</t>
+  </si>
+  <si>
+    <t>Return if team wins division</t>
+  </si>
+  <si>
+    <t>NYM NL East</t>
+  </si>
+  <si>
+    <t>WSN NL East</t>
   </si>
 </sst>
 </file>
@@ -261,12 +298,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +314,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,33 +361,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -653,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CAC479-3489-4D36-8E08-15BD49DCF775}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,8 +754,8 @@
         <v>62</v>
       </c>
       <c r="B1" s="7">
-        <f>+SUM(B5:B16)</f>
-        <v>850</v>
+        <f>+SUM(B5:B18)</f>
+        <v>900</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -682,7 +764,7 @@
       </c>
       <c r="B2" s="7">
         <f>+B1-0</f>
-        <v>850</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -723,6 +805,9 @@
       <c r="C6" s="3">
         <v>66.25</v>
       </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -734,6 +819,9 @@
       <c r="C7" s="3">
         <v>81.25</v>
       </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -745,6 +833,9 @@
       <c r="C8" s="3">
         <v>900</v>
       </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -756,6 +847,9 @@
       <c r="C9" s="3">
         <v>118.75</v>
       </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -767,6 +861,9 @@
       <c r="C10" s="3">
         <v>87.25</v>
       </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -778,6 +875,9 @@
       <c r="C11" s="3">
         <v>425</v>
       </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -789,6 +889,9 @@
       <c r="C12" s="3">
         <v>300</v>
       </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -800,6 +903,9 @@
       <c r="C13" s="3">
         <v>375</v>
       </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -811,6 +917,9 @@
       <c r="C14" s="3">
         <v>900</v>
       </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -822,6 +931,9 @@
       <c r="C15" s="3">
         <v>900</v>
       </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -832,6 +944,37 @@
       </c>
       <c r="C16" s="3">
         <v>375</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="3">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="3">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3">
+        <v>525</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -840,47 +983,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBC71D2-6D8F-4B08-A778-071B9D0A1932}">
-  <dimension ref="A3:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B763DCBF-E3BA-4266-A417-8303EE164CC0}">
+  <dimension ref="A4:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1900</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>400</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>1.95</v>
+      </c>
+      <c r="D5" s="2">
+        <v>95.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>1.95</v>
+      </c>
+      <c r="D6" s="2">
+        <v>95.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="12">
+        <f>+SUM(D5:D6)</f>
+        <v>190.48</v>
       </c>
     </row>
   </sheetData>
@@ -889,11 +1052,98 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBC71D2-6D8F-4B08-A778-071B9D0A1932}">
+  <dimension ref="A3:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1900</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2090.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2">
+        <v>400</v>
+      </c>
+      <c r="C7" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="2">
+        <f>+SUM(B5:B7)</f>
+        <v>3300</v>
+      </c>
+      <c r="C8" s="2">
+        <f>+SUM(C5:C7)</f>
+        <v>3490.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>+SUM(C5:C7)/SUM(B5:B7)</f>
+        <v>1.0577212121212121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55610E92-7569-4230-A13A-1A33FAB43FA7}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,16 +1154,16 @@
     <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="5">
         <f>+SUM(G8:G37)</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0.15</v>
       </c>
@@ -921,7 +1171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>0.1</v>
       </c>
@@ -929,7 +1179,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>50</v>
       </c>
@@ -937,7 +1187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
@@ -946,7 +1196,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -971,14 +1221,14 @@
       <c r="H7" t="s">
         <v>3</v>
       </c>
-      <c r="I7" t="s">
-        <v>70</v>
+      <c r="I7" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="J7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -989,31 +1239,33 @@
         <v>43</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <f>1/(D8)</f>
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="F8" s="1">
-        <f>+B8-E8</f>
-        <v>0.20508888888888888</v>
+        <f t="shared" ref="F8:F37" si="0">+B8-E8</f>
+        <v>0.21619999999999998</v>
       </c>
       <c r="G8" s="4">
         <v>100</v>
       </c>
       <c r="H8" s="4">
-        <v>900</v>
+        <f>+D8*G8</f>
+        <v>1000</v>
       </c>
       <c r="I8" s="2">
-        <v>800</v>
-      </c>
-      <c r="J8" s="13">
+        <f>+H8-G9-G10-G11-G12</f>
+        <v>850</v>
+      </c>
+      <c r="J8" s="2">
         <f>+I8*B8</f>
-        <v>252.95999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>268.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1024,31 +1276,33 @@
         <v>43</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:E37" si="0">1/(D9)</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" ref="E9:E37" si="1">1/(D9)</f>
+        <v>0.1</v>
       </c>
       <c r="F9" s="1">
-        <f>+B9-E9</f>
-        <v>0.10798888888888888</v>
+        <f t="shared" si="0"/>
+        <v>0.11909999999999998</v>
       </c>
       <c r="G9" s="4">
         <v>100</v>
       </c>
       <c r="H9" s="4">
-        <v>900</v>
+        <f t="shared" ref="H9:H37" si="2">+D9*G9</f>
+        <v>1000</v>
       </c>
       <c r="I9" s="2">
-        <v>800</v>
-      </c>
-      <c r="J9" s="13">
+        <f>+H9-G8-G10</f>
+        <v>850</v>
+      </c>
+      <c r="J9" s="2">
         <f>+I9*B9</f>
-        <v>175.28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>186.23499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1059,31 +1313,33 @@
         <v>43</v>
       </c>
       <c r="D10">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F10" s="1">
-        <f>+B10-E10</f>
-        <v>6.2166666666666676E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.2642857142857158E-2</v>
       </c>
       <c r="G10" s="4">
         <v>50</v>
       </c>
       <c r="H10" s="4">
-        <v>375</v>
+        <f t="shared" si="2"/>
+        <v>350</v>
       </c>
       <c r="I10" s="2">
-        <v>175</v>
-      </c>
-      <c r="J10" s="13">
+        <f>+H10-G9-G8</f>
+        <v>150</v>
+      </c>
+      <c r="J10" s="2">
         <f>+I10*B10</f>
-        <v>34.212499999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>29.325000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1094,23 +1350,25 @@
         <v>43</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F11" s="1">
-        <f>+B11-E11</f>
-        <v>-8.5800000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>-6.9133333333333324E-2</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <f>+-SUM(G8:G10)</f>
         <v>-250</v>
       </c>
       <c r="J11" s="2">
@@ -1118,7 +1376,7 @@
         <v>-3.5500000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
@@ -1132,28 +1390,34 @@
         <v>1.5</v>
       </c>
       <c r="E12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F12" s="9">
-        <f>+B12-E12</f>
+        <f t="shared" si="0"/>
         <v>-0.41166666666666663</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
       </c>
       <c r="H12" s="10">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <f>-SUM(G8:G10)</f>
         <v>-250</v>
       </c>
       <c r="J12" s="11">
         <f>+-SUM(G8:G10)*B12</f>
         <v>-63.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="15">
+        <f>+SUM(J8:J12)</f>
+        <v>417.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1167,28 +1431,30 @@
         <v>3</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F13" s="1">
-        <f>+B13-E13</f>
+        <f t="shared" si="0"/>
         <v>0.15426666666666666</v>
       </c>
       <c r="G13" s="4">
         <v>100</v>
       </c>
       <c r="H13" s="4">
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="I13" s="2">
+        <f>+H13-G14</f>
         <v>200</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="2">
         <f>+I13*B13</f>
         <v>97.52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1199,31 +1465,33 @@
         <v>44</v>
       </c>
       <c r="D14">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.23529411764705882</v>
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
       </c>
       <c r="F14" s="1">
-        <f>+B14-E14</f>
-        <v>0.1047058823529412</v>
+        <f t="shared" si="0"/>
+        <v>3.2307692307692315E-2</v>
       </c>
       <c r="G14" s="4">
         <v>100</v>
       </c>
       <c r="H14" s="4">
-        <v>425</v>
+        <f t="shared" si="2"/>
+        <v>325</v>
       </c>
       <c r="I14" s="2">
-        <v>325</v>
-      </c>
-      <c r="J14" s="13">
+        <f>+H14-G13</f>
+        <v>225</v>
+      </c>
+      <c r="J14" s="2">
         <f>+I14*B14</f>
-        <v>110.50000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1237,20 +1505,22 @@
         <v>151</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6225165562913907E-3</v>
       </c>
       <c r="F15" s="1">
-        <f>+B15-E15</f>
+        <f t="shared" si="0"/>
         <v>-6.6225165562913907E-3</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <f>+-SUM(G13:G14)</f>
         <v>-200</v>
       </c>
       <c r="J15" s="2">
@@ -1258,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1269,31 +1539,33 @@
         <v>44</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
       </c>
       <c r="F16" s="1">
-        <f>+B16-E16</f>
-        <v>-0.16593333333333332</v>
+        <f t="shared" si="0"/>
+        <v>-0.14029230769230772</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <f>-SUM(G13:G14)</f>
         <v>-200</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" ref="J15:J17" si="1">+I16*B16</f>
+        <f t="shared" ref="J16:J17" si="3">+I16*B16</f>
         <v>-33.479999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
@@ -1304,31 +1576,37 @@
         <v>44</v>
       </c>
       <c r="D17" s="8">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="E17" s="9">
-        <f t="shared" si="0"/>
-        <v>0.21052631578947367</v>
+        <f t="shared" si="1"/>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F17" s="9">
-        <f>+B17-E17</f>
-        <v>-0.20552631578947367</v>
+        <f t="shared" si="0"/>
+        <v>-0.17681818181818182</v>
       </c>
       <c r="G17" s="10">
         <v>0</v>
       </c>
       <c r="H17" s="10">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <f>-SUM(G13:G14)</f>
         <v>-200</v>
       </c>
       <c r="J17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="15">
+        <f>+SUM(J13:J17)</f>
+        <v>139.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1339,20 +1617,21 @@
         <v>48</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8461538461538464E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="F18" s="1">
-        <f>+B18-E18</f>
-        <v>-1.5561538461538463E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.4719047619047616E-2</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
       </c>
       <c r="H18" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I18" s="2">
@@ -1363,7 +1642,7 @@
         <v>-1.7175</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1374,32 +1653,33 @@
         <v>48</v>
       </c>
       <c r="D19">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="1"/>
+        <v>0.59171597633136097</v>
       </c>
       <c r="F19" s="1">
-        <f>+B19-E19</f>
-        <v>5.0771428571428578E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.0484023668639004E-2</v>
       </c>
       <c r="G19" s="4">
         <v>50</v>
       </c>
       <c r="H19" s="4">
-        <v>87.5</v>
+        <f t="shared" si="2"/>
+        <v>84.5</v>
       </c>
       <c r="I19" s="2">
         <f>+H19-G20</f>
-        <v>62.5</v>
+        <v>59.5</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" ref="J19:J22" si="2">+I19*B19</f>
-        <v>38.887499999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J19:J22" si="4">+I19*B19</f>
+        <v>37.020899999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1410,32 +1690,33 @@
         <v>48</v>
       </c>
       <c r="D20">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.21052631578947367</v>
+        <f t="shared" si="1"/>
+        <v>0.20833333333333334</v>
       </c>
       <c r="F20" s="1">
-        <f>+B20-E20</f>
-        <v>3.3973684210526323E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.6166666666666653E-2</v>
       </c>
       <c r="G20" s="4">
         <v>25</v>
       </c>
       <c r="H20" s="4">
-        <v>118.75</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="I20" s="2">
         <f>+H20-G19</f>
-        <v>68.75</v>
+        <v>70</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="2"/>
-        <v>16.809374999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>17.114999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1446,31 +1727,32 @@
         <v>48</v>
       </c>
       <c r="D21">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.17391304347826086</v>
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F21" s="1">
-        <f>+B21-E21</f>
-        <v>-9.0713043478260869E-2</v>
+        <f t="shared" si="0"/>
+        <v>-5.9657142857142853E-2</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
         <v>-75</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-6.2399999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1484,28 +1766,33 @@
         <v>8</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
       <c r="F22" s="9">
-        <f>+B22-E22</f>
+        <f t="shared" si="0"/>
         <v>-9.7799999999999998E-2</v>
       </c>
       <c r="G22" s="10">
         <v>0</v>
       </c>
       <c r="H22" s="10">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="18">
         <v>-75</v>
       </c>
       <c r="J22" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.04</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="15">
+        <f>+SUM(J18:J22)</f>
+        <v>44.13839999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1516,21 +1803,22 @@
         <v>46</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="F23" s="1">
-        <f>+B23-E23</f>
-        <v>3.6222222222222225E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.9609756097560976E-2</v>
       </c>
       <c r="G23" s="4">
         <v>25</v>
       </c>
       <c r="H23" s="4">
-        <v>900</v>
+        <f t="shared" si="2"/>
+        <v>1025</v>
       </c>
       <c r="I23" s="2">
         <v>900</v>
@@ -1540,7 +1828,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1551,31 +1839,33 @@
         <v>46</v>
       </c>
       <c r="D24">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.30769230769230771</v>
+        <f t="shared" si="1"/>
+        <v>0.3125</v>
       </c>
       <c r="F24" s="1">
-        <f>+B24-E24</f>
-        <v>1.9307692307692303E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4500000000000013E-2</v>
       </c>
       <c r="G24" s="4">
         <v>25</v>
       </c>
       <c r="H24" s="4">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="I24" s="2">
-        <v>81.25</v>
+        <f>+H24-G23</f>
+        <v>55</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" ref="J24:J32" si="3">+I24*B24</f>
-        <v>26.568750000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J24:J32" si="5">+I24*B24</f>
+        <v>17.984999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1589,28 +1879,29 @@
         <v>6</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F25" s="1">
-        <f>+B25-E25</f>
+        <f t="shared" si="0"/>
         <v>-7.666666666666655E-3</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
         <v>-50</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.95</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1621,31 +1912,32 @@
         <v>46</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F26" s="1">
-        <f>+B26-E26</f>
-        <v>-4.6700000000000005E-2</v>
+        <f t="shared" si="0"/>
+        <v>-3.7609090909090911E-2</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
         <v>-50</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.665</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>31</v>
       </c>
@@ -1659,28 +1951,33 @@
         <v>1.95</v>
       </c>
       <c r="E27" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.51282051282051289</v>
       </c>
       <c r="F27" s="9">
-        <f>+B27-E27</f>
+        <f t="shared" si="0"/>
         <v>-0.11612051282051289</v>
       </c>
       <c r="G27" s="10">
         <v>0</v>
       </c>
       <c r="H27" s="10">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="18">
         <v>-50</v>
       </c>
       <c r="J27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-19.835000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="15">
+        <f>+SUM(J23:J27)</f>
+        <v>45.134999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1691,31 +1988,33 @@
         <v>45</v>
       </c>
       <c r="D28">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.37735849056603776</v>
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
       <c r="F28" s="1">
-        <f>+B28-E28</f>
-        <v>5.3541509433962242E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.0899999999999983E-2</v>
       </c>
       <c r="G28" s="4">
         <v>25</v>
       </c>
       <c r="H28" s="4">
-        <v>66.25</v>
+        <f t="shared" si="2"/>
+        <v>62.5</v>
       </c>
       <c r="I28" s="2">
-        <v>66.25</v>
+        <f>+H28-G29-G30</f>
+        <v>12.5</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="3"/>
-        <v>28.547125000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>5.3862500000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1726,31 +2025,33 @@
         <v>45</v>
       </c>
       <c r="D29">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>0.42553191489361702</v>
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F29" s="1">
-        <f>+B29-E29</f>
-        <v>6.6680851063829483E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.5533333333333288E-2</v>
       </c>
       <c r="G29" s="4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H29" s="4">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="I29" s="2">
-        <v>-25</v>
+        <f>+H29-G28-G30</f>
+        <v>10</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="3"/>
-        <v>-10.805</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>4.3220000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1764,28 +2065,30 @@
         <v>23</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="F30" s="1">
-        <f>+B30-E30</f>
+        <f t="shared" si="0"/>
         <v>2.7217391304347818E-3</v>
       </c>
       <c r="G30" s="4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H30" s="4">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>575</v>
       </c>
       <c r="I30" s="2">
-        <v>-25</v>
+        <f>+H30-SUM(G28:G29)</f>
+        <v>525</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="3"/>
-        <v>-1.155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>24.254999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1796,31 +2099,32 @@
         <v>45</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F31" s="1">
-        <f>+B31-E31</f>
-        <v>-5.4309090909090911E-2</v>
+        <f t="shared" si="0"/>
+        <v>-4.6733333333333328E-2</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="17">
         <v>-25</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.91500000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>27</v>
       </c>
@@ -1831,31 +2135,36 @@
         <v>45</v>
       </c>
       <c r="D32" s="8">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <f t="shared" si="1"/>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F32" s="9">
-        <f>+B32-E32</f>
-        <v>-0.12771818181818181</v>
+        <f t="shared" si="0"/>
+        <v>-9.9746153846153846E-2</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
       </c>
       <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="18">
         <v>-25</v>
       </c>
       <c r="J32" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.3525</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="15">
+        <f>+SUM(J28:J32)</f>
+        <v>31.695750000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1869,17 +2178,18 @@
         <v>3.75</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="F33" s="1">
-        <f>+B33-E33</f>
+        <f t="shared" si="0"/>
         <v>0.35643333333333332</v>
       </c>
       <c r="G33" s="4">
         <v>100</v>
       </c>
       <c r="H33" s="4">
+        <f t="shared" si="2"/>
         <v>375</v>
       </c>
       <c r="I33" s="2">
@@ -1890,7 +2200,7 @@
         <v>233.66249999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1904,28 +2214,29 @@
         <v>101</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="F34" s="1">
-        <f>+B34-E34</f>
+        <f t="shared" si="0"/>
         <v>-9.9009900990099011E-3</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="17">
         <v>-100</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34:J37" si="4">+I34*B34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J34:J37" si="6">+I34*B34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1936,31 +2247,32 @@
         <v>42</v>
       </c>
       <c r="D35">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>1.9607843137254902E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.6393442622950821E-2</v>
       </c>
       <c r="F35" s="1">
-        <f>+B35-E35</f>
-        <v>-1.9607843137254902E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.6393442622950821E-2</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
       </c>
       <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
         <v>-100</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1971,31 +2283,32 @@
         <v>42</v>
       </c>
       <c r="D36">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
-        <v>0.21052631578947367</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="F36" s="1">
-        <f>+B36-E36</f>
-        <v>-0.15772631578947366</v>
+        <f t="shared" si="0"/>
+        <v>-0.1472</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
       </c>
       <c r="H36" s="4">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="17">
         <v>-100</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.28</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>36</v>
       </c>
@@ -2006,47 +2319,63 @@
         <v>42</v>
       </c>
       <c r="D37" s="8">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="E37" s="9">
-        <f t="shared" si="0"/>
-        <v>0.6211180124223602</v>
+        <f t="shared" si="1"/>
+        <v>0.58139534883720934</v>
       </c>
       <c r="F37" s="9">
-        <f>+B37-E37</f>
-        <v>-0.29741801242236021</v>
+        <f t="shared" si="0"/>
+        <v>-0.25769534883720935</v>
       </c>
       <c r="G37" s="10">
         <v>0</v>
       </c>
       <c r="H37" s="10">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="18">
         <v>-100</v>
       </c>
-      <c r="J37" s="2">
-        <f t="shared" si="4"/>
+      <c r="J37" s="11">
+        <f t="shared" si="6"/>
         <v>-32.369999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="15">
+        <f>+SUM(J33:J37)</f>
+        <v>196.01249999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G38" s="1"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="15">
+      <c r="I38" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J38" s="13">
         <f>+SUM(J8:J37)</f>
-        <v>878.44275000000039</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J39" s="14"/>
+        <v>873.55165000000011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" s="14">
+        <f>+J38/B1</f>
+        <v>1.1647355333333336</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:F37" xr:uid="{55610E92-7569-4230-A13A-1A33FAB43FA7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:F37">
-      <sortCondition ref="C7:C37"/>
-    </sortState>
-  </autoFilter>
+  <conditionalFormatting sqref="F8:F37">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/daily_betting/2022 bets.xlsx
+++ b/daily_betting/2022 bets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96d8f57e66b541f6/Documents/GitHub/baseball model/daily_betting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="744" documentId="8_{64D840B4-FC2F-43E0-9DB7-29DD99BF8E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2445D64A-E399-4A44-B314-AD07DF703175}"/>
+  <xr:revisionPtr revIDLastSave="849" documentId="8_{64D840B4-FC2F-43E0-9DB7-29DD99BF8E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE471A25-0DCF-4993-86C8-FDD33C126666}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E39BF201-E179-4BA7-B60E-3B50FDE30F4C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
   <si>
     <t>bets</t>
   </si>
@@ -290,6 +290,15 @@
   </si>
   <si>
     <t>WSN NL East</t>
+  </si>
+  <si>
+    <t>Decimal odds</t>
+  </si>
+  <si>
+    <t>Closing line</t>
+  </si>
+  <si>
+    <t>CLV</t>
   </si>
 </sst>
 </file>
@@ -366,7 +375,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -388,13 +397,14 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -412,16 +422,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -735,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CAC479-3489-4D36-8E08-15BD49DCF775}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,10 +746,12 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -758,7 +760,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -767,7 +769,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -778,10 +780,19 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -791,11 +802,17 @@
       <c r="C5" s="3">
         <v>2100</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="19">
+        <f>+C5/B5</f>
+        <v>14</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -805,11 +822,17 @@
       <c r="C6" s="3">
         <v>66.25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="19">
+        <f t="shared" ref="D6:D18" si="0">+C6/B6</f>
+        <v>2.65</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -819,11 +842,17 @@
       <c r="C7" s="3">
         <v>81.25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="19">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -833,11 +862,17 @@
       <c r="C8" s="3">
         <v>900</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="19">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -847,11 +882,17 @@
       <c r="C9" s="3">
         <v>118.75</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="19">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -861,11 +902,17 @@
       <c r="C10" s="3">
         <v>87.25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="19">
+        <f t="shared" si="0"/>
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -875,11 +922,17 @@
       <c r="C11" s="3">
         <v>425</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="19">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -889,11 +942,17 @@
       <c r="C12" s="3">
         <v>300</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -903,11 +962,17 @@
       <c r="C13" s="3">
         <v>375</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="19">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -917,11 +982,17 @@
       <c r="C14" s="3">
         <v>900</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -931,11 +1002,17 @@
       <c r="C15" s="3">
         <v>900</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -945,11 +1022,17 @@
       <c r="C16" s="3">
         <v>375</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="19">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -959,11 +1042,17 @@
       <c r="C17" s="3">
         <v>60</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="19">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -973,12 +1062,19 @@
       <c r="C18" s="3">
         <v>525</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="19">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1142,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55610E92-7569-4230-A13A-1A33FAB43FA7}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1233,36 +1329,36 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>0.31619999999999998</v>
+        <v>0.18110000000000001</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1">
         <f>1/(D8)</f>
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ref="F8:F37" si="0">+B8-E8</f>
-        <v>0.21619999999999998</v>
+        <v>6.9988888888888906E-2</v>
       </c>
       <c r="G8" s="4">
         <v>100</v>
       </c>
       <c r="H8" s="4">
         <f>+D8*G8</f>
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I8" s="2">
         <f>+H8-G9-G10-G11-G12</f>
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="J8" s="2">
         <f>+I8*B8</f>
-        <v>268.77</v>
+        <v>135.82500000000002</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1270,36 +1366,36 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.21909999999999999</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ref="E9:E37" si="1">1/(D9)</f>
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.11909999999999998</v>
+        <v>-1.6111111111111104E-2</v>
       </c>
       <c r="G9" s="4">
         <v>100</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" ref="H9:H37" si="2">+D9*G9</f>
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I9" s="2">
         <f>+H9-G8-G10</f>
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="J9" s="2">
         <f>+I9*B9</f>
-        <v>186.23499999999999</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1307,7 +1403,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.19550000000000001</v>
+        <v>0.20319999999999999</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -1321,7 +1417,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>5.2642857142857158E-2</v>
+        <v>6.0342857142857143E-2</v>
       </c>
       <c r="G10" s="4">
         <v>50</v>
@@ -1336,7 +1432,7 @@
       </c>
       <c r="J10" s="2">
         <f>+I10*B10</f>
-        <v>29.325000000000003</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1344,7 +1440,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>1.4200000000000001E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="C11" t="s">
         <v>43</v>
@@ -1358,7 +1454,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>-6.9133333333333324E-2</v>
+        <v>-6.6633333333333322E-2</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -1373,7 +1469,7 @@
       </c>
       <c r="J11" s="2">
         <f>+I11*B11</f>
-        <v>-3.5500000000000003</v>
+        <v>-4.1749999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1381,7 +1477,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="8">
-        <v>0.255</v>
+        <v>0.504</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>43</v>
@@ -1395,7 +1491,7 @@
       </c>
       <c r="F12" s="9">
         <f t="shared" si="0"/>
-        <v>-0.41166666666666663</v>
+        <v>-0.16266666666666663</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
@@ -1410,11 +1506,11 @@
       </c>
       <c r="J12" s="11">
         <f>+-SUM(G8:G10)*B12</f>
-        <v>-63.75</v>
+        <v>-126</v>
       </c>
       <c r="K12" s="15">
         <f>+SUM(J8:J12)</f>
-        <v>417.03</v>
+        <v>107.38</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1422,7 +1518,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.48759999999999998</v>
+        <v>0.59409999999999996</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -1436,7 +1532,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.15426666666666666</v>
+        <v>0.26076666666666665</v>
       </c>
       <c r="G13" s="4">
         <v>100</v>
@@ -1451,7 +1547,7 @@
       </c>
       <c r="J13" s="2">
         <f>+I13*B13</f>
-        <v>97.52</v>
+        <v>118.82</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1459,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.34</v>
+        <v>0.36109999999999998</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
@@ -1473,7 +1569,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>3.2307692307692315E-2</v>
+        <v>5.3407692307692267E-2</v>
       </c>
       <c r="G14" s="4">
         <v>100</v>
@@ -1488,7 +1584,7 @@
       </c>
       <c r="J14" s="2">
         <f>+I14*B14</f>
-        <v>76.5</v>
+        <v>81.247499999999988</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1533,7 +1629,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>0.16739999999999999</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
@@ -1547,7 +1643,7 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>-0.14029230769230772</v>
+        <v>-0.26789230769230771</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -1562,7 +1658,7 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" ref="J16:J17" si="3">+I16*B16</f>
-        <v>-33.479999999999997</v>
+        <v>-7.9600000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1603,7 +1699,7 @@
       </c>
       <c r="K17" s="15">
         <f>+SUM(J13:J17)</f>
-        <v>139.54</v>
+        <v>191.10749999999999</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1611,7 +1707,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>2.29E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
@@ -1625,7 +1721,7 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>-2.4719047619047616E-2</v>
+        <v>-3.4619047619047619E-2</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -1639,7 +1735,7 @@
       </c>
       <c r="J18" s="2">
         <f>+I18*B18</f>
-        <v>-1.7175</v>
+        <v>-0.97499999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1647,7 +1743,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.62219999999999998</v>
+        <v>0.60760000000000003</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -1661,7 +1757,7 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>3.0484023668639004E-2</v>
+        <v>1.5884023668639058E-2</v>
       </c>
       <c r="G19" s="4">
         <v>50</v>
@@ -1676,7 +1772,7 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" ref="J19:J22" si="4">+I19*B19</f>
-        <v>37.020899999999997</v>
+        <v>36.152200000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1684,7 +1780,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.2445</v>
+        <v>0.2697</v>
       </c>
       <c r="C20" t="s">
         <v>48</v>
@@ -1698,7 +1794,7 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>3.6166666666666653E-2</v>
+        <v>6.1366666666666653E-2</v>
       </c>
       <c r="G20" s="4">
         <v>25</v>
@@ -1713,7 +1809,7 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="4"/>
-        <v>17.114999999999998</v>
+        <v>18.879000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1721,7 +1817,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>8.3199999999999996E-2</v>
+        <v>9.2700000000000005E-2</v>
       </c>
       <c r="C21" t="s">
         <v>48</v>
@@ -1735,7 +1831,7 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>-5.9657142857142853E-2</v>
+        <v>-5.0157142857142845E-2</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -1749,7 +1845,7 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="4"/>
-        <v>-6.2399999999999993</v>
+        <v>-6.9525000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1757,7 +1853,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8">
-        <v>2.7199999999999998E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>48</v>
@@ -1771,7 +1867,7 @@
       </c>
       <c r="F22" s="9">
         <f t="shared" si="0"/>
-        <v>-9.7799999999999998E-2</v>
+        <v>-0.108</v>
       </c>
       <c r="G22" s="10">
         <v>0</v>
@@ -1785,11 +1881,11 @@
       </c>
       <c r="J22" s="11">
         <f t="shared" si="4"/>
-        <v>-2.04</v>
+        <v>-1.2750000000000001</v>
       </c>
       <c r="K22" s="15">
         <f>+SUM(J18:J22)</f>
-        <v>44.13839999999999</v>
+        <v>45.828700000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1797,7 +1893,7 @@
         <v>32</v>
       </c>
       <c r="B23">
-        <v>6.4000000000000001E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
@@ -1811,7 +1907,7 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>3.9609756097560976E-2</v>
+        <v>3.8109756097560975E-2</v>
       </c>
       <c r="G23" s="4">
         <v>25</v>
@@ -1825,7 +1921,7 @@
       </c>
       <c r="J23" s="2">
         <f>+I23*B23</f>
-        <v>57.6</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1833,7 +1929,7 @@
         <v>33</v>
       </c>
       <c r="B24">
-        <v>0.32700000000000001</v>
+        <v>0.42980000000000002</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
@@ -1847,7 +1943,7 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>1.4500000000000013E-2</v>
+        <v>0.11730000000000002</v>
       </c>
       <c r="G24" s="4">
         <v>25</v>
@@ -1862,7 +1958,7 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" ref="J24:J32" si="5">+I24*B24</f>
-        <v>17.984999999999999</v>
+        <v>23.638999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1870,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.159</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
@@ -1884,7 +1980,7 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>-7.666666666666655E-3</v>
+        <v>-0.11066666666666666</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -1898,7 +1994,7 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="5"/>
-        <v>-7.95</v>
+        <v>-2.8000000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1906,7 +2002,7 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>5.33E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="C26" t="s">
         <v>46</v>
@@ -1920,7 +2016,7 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>-3.7609090909090911E-2</v>
+        <v>-7.1409090909090908E-2</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -1934,7 +2030,7 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="5"/>
-        <v>-2.665</v>
+        <v>-0.97499999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1942,7 +2038,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="8">
-        <v>0.3967</v>
+        <v>0.43219999999999997</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>46</v>
@@ -1956,7 +2052,7 @@
       </c>
       <c r="F27" s="9">
         <f t="shared" si="0"/>
-        <v>-0.11612051282051289</v>
+        <v>-8.0620512820512913E-2</v>
       </c>
       <c r="G27" s="10">
         <v>0</v>
@@ -1970,11 +2066,11 @@
       </c>
       <c r="J27" s="11">
         <f t="shared" si="5"/>
-        <v>-19.835000000000001</v>
+        <v>-21.61</v>
       </c>
       <c r="K27" s="15">
         <f>+SUM(J23:J27)</f>
-        <v>45.134999999999998</v>
+        <v>54.504000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1982,7 +2078,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>0.43090000000000001</v>
+        <v>0.47049999999999997</v>
       </c>
       <c r="C28" t="s">
         <v>45</v>
@@ -1996,7 +2092,7 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>3.0899999999999983E-2</v>
+        <v>7.0499999999999952E-2</v>
       </c>
       <c r="G28" s="4">
         <v>25</v>
@@ -2011,7 +2107,7 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="5"/>
-        <v>5.3862500000000004</v>
+        <v>5.8812499999999996</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2019,7 +2115,7 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>0.43219999999999997</v>
+        <v>0.48780000000000001</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
@@ -2033,7 +2129,7 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>1.5533333333333288E-2</v>
+        <v>7.1133333333333326E-2</v>
       </c>
       <c r="G29" s="4">
         <v>25</v>
@@ -2048,7 +2144,7 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" si="5"/>
-        <v>4.3220000000000001</v>
+        <v>4.8780000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2056,7 +2152,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.6199999999999998E-2</v>
+        <v>1.21E-2</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -2070,7 +2166,7 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>2.7217391304347818E-3</v>
+        <v>-3.1378260869565217E-2</v>
       </c>
       <c r="G30" s="4">
         <v>25</v>
@@ -2085,7 +2181,7 @@
       </c>
       <c r="J30" s="2">
         <f t="shared" si="5"/>
-        <v>24.254999999999999</v>
+        <v>6.3525</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2093,7 +2189,7 @@
         <v>25</v>
       </c>
       <c r="B31">
-        <v>3.6600000000000001E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
@@ -2107,7 +2203,7 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>-4.6733333333333328E-2</v>
+        <v>-6.7833333333333329E-2</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
@@ -2117,11 +2213,11 @@
         <v>0</v>
       </c>
       <c r="I31" s="17">
-        <v>-25</v>
+        <v>-75</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="5"/>
-        <v>-0.91500000000000004</v>
+        <v>-1.1625000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2129,7 +2225,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="8">
-        <v>5.4100000000000002E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>45</v>
@@ -2143,7 +2239,7 @@
       </c>
       <c r="F32" s="9">
         <f t="shared" si="0"/>
-        <v>-9.9746153846153846E-2</v>
+        <v>-0.13974615384615385</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
@@ -2153,15 +2249,15 @@
         <v>0</v>
       </c>
       <c r="I32" s="18">
-        <v>-25</v>
+        <v>-75</v>
       </c>
       <c r="J32" s="11">
         <f t="shared" si="5"/>
-        <v>-1.3525</v>
+        <v>-1.0574999999999999</v>
       </c>
       <c r="K32" s="15">
         <f>+SUM(J28:J32)</f>
-        <v>31.695750000000004</v>
+        <v>14.891750000000002</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2169,7 +2265,7 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>0.62309999999999999</v>
+        <v>0.32619999999999999</v>
       </c>
       <c r="C33" t="s">
         <v>42</v>
@@ -2183,7 +2279,7 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0.35643333333333332</v>
+        <v>5.9533333333333327E-2</v>
       </c>
       <c r="G33" s="4">
         <v>100</v>
@@ -2197,7 +2293,7 @@
       </c>
       <c r="J33" s="2">
         <f>+I33*B33</f>
-        <v>233.66249999999999</v>
+        <v>122.325</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2277,7 +2373,7 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>5.28E-2</v>
+        <v>6.0499999999999998E-2</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
@@ -2291,7 +2387,7 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>-0.1472</v>
+        <v>-0.13950000000000001</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
@@ -2305,7 +2401,7 @@
       </c>
       <c r="J36" s="2">
         <f t="shared" si="6"/>
-        <v>-5.28</v>
+        <v>-6.05</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2313,7 +2409,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="8">
-        <v>0.32369999999999999</v>
+        <v>0.61309999999999998</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>42</v>
@@ -2327,7 +2423,7 @@
       </c>
       <c r="F37" s="9">
         <f t="shared" si="0"/>
-        <v>-0.25769534883720935</v>
+        <v>3.1704651162790642E-2</v>
       </c>
       <c r="G37" s="10">
         <v>0</v>
@@ -2341,11 +2437,11 @@
       </c>
       <c r="J37" s="11">
         <f t="shared" si="6"/>
-        <v>-32.369999999999997</v>
+        <v>-61.309999999999995</v>
       </c>
       <c r="K37" s="15">
         <f>+SUM(J33:J37)</f>
-        <v>196.01249999999999</v>
+        <v>54.965000000000011</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2355,7 +2451,7 @@
       </c>
       <c r="J38" s="13">
         <f>+SUM(J8:J37)</f>
-        <v>873.55165000000011</v>
+        <v>468.67695000000009</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2364,15 +2460,15 @@
       </c>
       <c r="J39" s="14">
         <f>+J38/B1</f>
-        <v>1.1647355333333336</v>
+        <v>0.62490260000000009</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F8:F37">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/daily_betting/2022 bets.xlsx
+++ b/daily_betting/2022 bets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96d8f57e66b541f6/Documents/GitHub/baseball model/daily_betting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="849" documentId="8_{64D840B4-FC2F-43E0-9DB7-29DD99BF8E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE471A25-0DCF-4993-86C8-FDD33C126666}"/>
+  <xr:revisionPtr revIDLastSave="853" documentId="8_{64D840B4-FC2F-43E0-9DB7-29DD99BF8E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2544FB3-EF92-47B1-BB17-318CCFA9C44D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E39BF201-E179-4BA7-B60E-3B50FDE30F4C}"/>
   </bookViews>
@@ -375,7 +375,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -398,6 +398,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1238,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55610E92-7569-4230-A13A-1A33FAB43FA7}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,7 +1257,7 @@
       </c>
       <c r="B1" s="5">
         <f>+SUM(G8:G37)</f>
-        <v>750</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1730,7 +1731,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="17">
         <v>-75</v>
       </c>
       <c r="J18" s="2">
@@ -1916,12 +1917,13 @@
         <f t="shared" si="2"/>
         <v>1025</v>
       </c>
-      <c r="I23" s="2">
-        <v>900</v>
+      <c r="I23" s="4">
+        <f>+H23-G24</f>
+        <v>1000</v>
       </c>
       <c r="J23" s="2">
         <f>+I23*B23</f>
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2070,7 +2072,7 @@
       </c>
       <c r="K27" s="15">
         <f>+SUM(J23:J27)</f>
-        <v>54.504000000000005</v>
+        <v>60.754000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2426,22 +2428,23 @@
         <v>3.1704651162790642E-2</v>
       </c>
       <c r="G37" s="10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H37" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="18">
-        <v>-100</v>
+        <v>86</v>
+      </c>
+      <c r="I37" s="20">
+        <f>+H37-G33</f>
+        <v>-14</v>
       </c>
       <c r="J37" s="11">
         <f t="shared" si="6"/>
-        <v>-61.309999999999995</v>
+        <v>-8.5833999999999993</v>
       </c>
       <c r="K37" s="15">
         <f>+SUM(J33:J37)</f>
-        <v>54.965000000000011</v>
+        <v>107.69160000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2451,7 +2454,7 @@
       </c>
       <c r="J38" s="13">
         <f>+SUM(J8:J37)</f>
-        <v>468.67695000000009</v>
+        <v>527.65355000000011</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2460,7 +2463,7 @@
       </c>
       <c r="J39" s="14">
         <f>+J38/B1</f>
-        <v>0.62490260000000009</v>
+        <v>0.65956693750000017</v>
       </c>
     </row>
   </sheetData>
@@ -2474,5 +2477,8 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I11:I12 I15:I17 I30" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/daily_betting/2022 bets.xlsx
+++ b/daily_betting/2022 bets.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96d8f57e66b541f6/Documents/GitHub/baseball model/daily_betting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1857" documentId="8_{64D840B4-FC2F-43E0-9DB7-29DD99BF8E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A977C47E-20EE-4210-84C5-4A1DC5D543B8}"/>
+  <xr:revisionPtr revIDLastSave="1986" documentId="8_{64D840B4-FC2F-43E0-9DB7-29DD99BF8E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D83EA3CD-2B33-415F-8D37-3321C5D2A505}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{E39BF201-E179-4BA7-B60E-3B50FDE30F4C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="43" r:id="rId7"/>
+    <pivotCache cacheId="69" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16491" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16504" uniqueCount="132">
   <si>
     <t>bets</t>
   </si>
@@ -421,12 +421,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>Wins</t>
-  </si>
-  <si>
-    <t>Losses</t>
-  </si>
-  <si>
     <t>Casino</t>
   </si>
   <si>
@@ -512,7 +506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +528,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +680,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -718,6 +718,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -725,22 +731,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -758,9 +749,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="eric peterson" refreshedDate="44659.88687638889" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="11" xr:uid="{0526811E-74D1-40FB-9218-0024E9D86120}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="eric peterson" refreshedDate="44660.661653240742" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="16" xr:uid="{77D0A6D2-E6F5-43C1-8498-676C4F578BD7}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:O12" sheet="baseball bets"/>
+    <worksheetSource ref="A1:O17" sheet="baseball bets"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="Date" numFmtId="16">
@@ -776,37 +767,37 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Odds Bet" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.55" maxValue="2.75"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.48" maxValue="2.75"/>
     </cacheField>
     <cacheField name="Odds Opponent" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.49" maxValue="2.5"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.49" maxValue="2.7"/>
     </cacheField>
     <cacheField name="Juice" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.0130699391399673E-2" maxValue="5.0184383517716924E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.0130699391399673E-2" maxValue="5.0903119868637159E-2"/>
     </cacheField>
     <cacheField name="Model Odds" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.4197668325150601" maxValue="2.4088476577887299"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.38365829337732" maxValue="2.47044598969749"/>
     </cacheField>
     <cacheField name="Difference" numFmtId="10">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4066541100544079E-2" maxValue="0.2861803646013954"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.8691287303201465E-2" maxValue="0.2861803646013954"/>
     </cacheField>
     <cacheField name="Amount Bet" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="99"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="99"/>
     </cacheField>
     <cacheField name="Units" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.5" maxValue="2"/>
     </cacheField>
     <cacheField name="Win / Loss" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="31.35" maxValue="113.85"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="27.36" maxValue="115.5"/>
     </cacheField>
     <cacheField name="Closing Number" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.72" maxValue="2.5499999999999998"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.48" maxValue="2.7"/>
     </cacheField>
     <cacheField name="CLV" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-5.8139534883720811E-2" maxValue="0.17021276595744683"/>
     </cacheField>
     <cacheField name="Return" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-85" maxValue="87.5"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-85" maxValue="115"/>
     </cacheField>
     <cacheField name="Casino" numFmtId="0">
       <sharedItems/>
@@ -821,7 +812,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="11">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="16">
   <r>
     <x v="0"/>
     <s v="KCR"/>
@@ -936,9 +927,9 @@
     <n v="45"/>
     <n v="2"/>
     <n v="71.100000000000009"/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="2.7"/>
+    <n v="-4.4444444444444509E-2"/>
+    <n v="-45"/>
     <s v="sb"/>
   </r>
   <r>
@@ -953,9 +944,9 @@
     <n v="60"/>
     <n v="1.5"/>
     <n v="84"/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="2.25"/>
+    <n v="6.6666666666666652E-2"/>
+    <n v="0"/>
     <s v="pb"/>
   </r>
   <r>
@@ -970,9 +961,9 @@
     <n v="85"/>
     <n v="1.5"/>
     <n v="56.949999999999996"/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1.72"/>
+    <n v="-2.9069767441860517E-2"/>
+    <n v="56.949999999999996"/>
     <s v="lb"/>
   </r>
   <r>
@@ -982,14 +973,14 @@
     <n v="2.15"/>
     <n v="1.74"/>
     <n v="3.9828922747928264E-2"/>
-    <n v="1.8665812052211901"/>
-    <n v="0.15183844881006636"/>
+    <n v="2.068899"/>
+    <n v="3.9200076949140517E-2"/>
     <n v="99"/>
     <n v="2"/>
     <n v="113.85"/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="2.2000000000000002"/>
+    <n v="-2.2727272727272818E-2"/>
+    <n v="115"/>
     <s v="pb"/>
   </r>
   <r>
@@ -1004,16 +995,101 @@
     <n v="57"/>
     <n v="1"/>
     <n v="31.35"/>
+    <n v="1.53"/>
+    <n v="1.3071895424836555E-2"/>
+    <n v="31.35"/>
+    <s v="lb"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="COL"/>
+    <s v="LAD"/>
+    <n v="1.48"/>
+    <n v="2.7"/>
+    <n v="4.6046046046046119E-2"/>
+    <n v="1.38365829337732"/>
+    <n v="6.9628250763794419E-2"/>
+    <n v="57"/>
+    <n v="1"/>
+    <n v="27.36"/>
+    <n v="1.48"/>
+    <n v="0"/>
+    <n v="27.36"/>
+    <s v="lb"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="NYY"/>
+    <s v="BOS"/>
+    <n v="2.5499999999999998"/>
+    <n v="1.54"/>
+    <n v="4.1507512095747323E-2"/>
+    <n v="2.47044598969749"/>
+    <n v="3.2202286807432534E-2"/>
+    <n v="29"/>
+    <n v="0.5"/>
+    <n v="44.949999999999996"/>
+    <n v="2.5499999999999998"/>
+    <n v="0"/>
+    <n v="-29"/>
+    <s v="pb"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="WSN"/>
+    <s v="NYM"/>
+    <n v="2.4"/>
+    <n v="1.61"/>
+    <n v="3.7784679089026829E-2"/>
+    <n v="2.3559640000000002"/>
+    <n v="1.8691287303201465E-2"/>
+    <n v="20"/>
+    <n v="0.5"/>
+    <n v="28"/>
     <m/>
     <m/>
+    <n v="-20"/>
+    <s v="pb"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="ATL"/>
+    <s v="CIN"/>
+    <n v="2.65"/>
+    <n v="1.5"/>
+    <n v="4.4025157232704393E-2"/>
+    <n v="2.2658100000000001"/>
+    <n v="0.1695596718171426"/>
+    <n v="70"/>
+    <n v="2"/>
+    <n v="115.5"/>
     <m/>
-    <s v="lb"/>
+    <m/>
+    <n v="-70"/>
+    <s v="pb"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="LAA"/>
+    <s v="HOU"/>
+    <n v="2.1"/>
+    <n v="1.74"/>
+    <n v="5.0903119868637159E-2"/>
+    <n v="1.89889"/>
+    <n v="0.10590924171489657"/>
+    <n v="85"/>
+    <n v="2"/>
+    <n v="93.500000000000014"/>
+    <m/>
+    <m/>
+    <n v="93.500000000000014"/>
+    <s v="sb"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71D08ED3-578D-4178-AC2E-707FE10569AE}" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C6DB06B-8DC1-419F-AA34-132A07054DD0}" name="PivotTable1" cacheId="69" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" numFmtId="16" showAll="0">
@@ -1072,7 +1148,7 @@
     <dataField name="Sum of Return" fld="13" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -51120,7 +51196,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBC71D2-6D8F-4B08-A778-071B9D0A1932}">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -51164,7 +51240,7 @@
       </c>
       <c r="G4" s="18">
         <f>+C8*0.005</f>
-        <v>28.395</v>
+        <v>29.199200000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -51175,7 +51251,8 @@
         <v>1900</v>
       </c>
       <c r="C5" s="18">
-        <v>2001</v>
+        <f>1450+546.98</f>
+        <v>1996.98</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>98</v>
@@ -51185,7 +51262,7 @@
       </c>
       <c r="G5" s="17">
         <f>+C8*0.01</f>
-        <v>56.79</v>
+        <v>58.398400000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -51196,7 +51273,7 @@
         <v>2000</v>
       </c>
       <c r="C6" s="17">
-        <v>2150</v>
+        <v>2266.36</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>99</v>
@@ -51206,7 +51283,7 @@
       </c>
       <c r="G6" s="17">
         <f>+C8*0.015</f>
-        <v>85.185000000000002</v>
+        <v>87.5976</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -51217,7 +51294,7 @@
         <v>1400</v>
       </c>
       <c r="C7" s="17">
-        <v>1528</v>
+        <v>1576.5</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>66</v>
@@ -51227,7 +51304,7 @@
       </c>
       <c r="G7" s="17">
         <f>+C8*0.02</f>
-        <v>113.58</v>
+        <v>116.7968</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -51240,7 +51317,7 @@
       </c>
       <c r="C8" s="17">
         <f>+SUM(C5:C7)</f>
-        <v>5679</v>
+        <v>5839.84</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -51249,7 +51326,7 @@
       </c>
       <c r="B9" s="6">
         <f>+SUM(C5:C7)/SUM(B5:B7) -1</f>
-        <v>7.1509433962264168E-2</v>
+        <v>0.10185660377358485</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -51267,40 +51344,21 @@
       </c>
       <c r="B11" s="25">
         <f>+(C8-B8)/57</f>
-        <v>6.6491228070175437</v>
+        <v>9.4708771929824582</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12">
-        <f>+SUM('closed bets'!E5:E19)</f>
-        <v>11</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="B12" s="31">
+        <f>+AVERAGE('baseball bets'!M2:M35)</f>
+        <v>1.5245043053998271E-2</v>
+      </c>
+      <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13">
-        <f>+'closed bets'!E20-accts!B12</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="31">
-        <f>+AVERAGE('baseball bets'!M2:M35)</f>
-        <v>4.3403935231007829E-2</v>
-      </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51312,7 +51370,7 @@
   <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51327,16 +51385,16 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
         <v>129</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
         <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -51358,23 +51416,27 @@
         <v>44659</v>
       </c>
       <c r="B5" s="34">
-        <v>346</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="34"/>
+        <v>607</v>
+      </c>
+      <c r="C5" s="31">
+        <v>-2.3575603602963768E-3</v>
+      </c>
+      <c r="D5" s="34">
+        <v>160.15999999999997</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="34">
-        <v>700</v>
+        <v>961</v>
       </c>
       <c r="C6" s="34">
-        <v>4.3403935231007829E-2</v>
+        <v>1.8763129912613256E-2</v>
       </c>
       <c r="D6" s="34">
-        <v>0.5</v>
+        <v>160.65999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -51387,7 +51449,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51416,13 +51478,13 @@
         <v>105</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="F1" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>106</v>
@@ -51440,16 +51502,16 @@
         <v>108</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M1" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -51476,7 +51538,7 @@
         <v>1.60571385564911</v>
       </c>
       <c r="H2" s="26">
-        <f>+D2/G2-1</f>
+        <f t="shared" ref="H2:H16" si="0">+D2/G2-1</f>
         <v>0.1334522608726354</v>
       </c>
       <c r="I2" s="9">
@@ -51486,7 +51548,7 @@
         <v>1.5</v>
       </c>
       <c r="K2" s="9">
-        <f>+I2*(D2-1)</f>
+        <f t="shared" ref="K2:K16" si="1">+I2*(D2-1)</f>
         <v>69.7</v>
       </c>
       <c r="L2" s="9">
@@ -51501,7 +51563,7 @@
         <v>-85</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -51521,14 +51583,14 @@
         <v>1.49</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F12" si="0">+((1/D3)+(1/E3)-1)</f>
+        <f t="shared" ref="F3:F17" si="2">+((1/D3)+(1/E3)-1)</f>
         <v>3.4777303233679113E-2</v>
       </c>
       <c r="G3" s="8">
         <v>2.1810585839876002</v>
       </c>
       <c r="H3" s="26">
-        <f>+D3/G3-1</f>
+        <f t="shared" si="0"/>
         <v>0.26085563230136244</v>
       </c>
       <c r="I3" s="8">
@@ -51538,14 +51600,14 @@
         <v>2</v>
       </c>
       <c r="K3" s="9">
-        <f>+I3*(D3-1)</f>
+        <f t="shared" si="1"/>
         <v>113.75</v>
       </c>
       <c r="L3" s="9">
         <v>2.35</v>
       </c>
       <c r="M3" s="26">
-        <f t="shared" ref="M3:M7" si="1">+D3/L3-1</f>
+        <f t="shared" ref="M3:M17" si="3">+D3/L3-1</f>
         <v>0.17021276595744683</v>
       </c>
       <c r="N3" s="9">
@@ -51553,7 +51615,7 @@
         <v>-65</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -51573,14 +51635,14 @@
         <v>1.49</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4777303233679113E-2</v>
       </c>
       <c r="G4" s="8">
         <v>2.4088476577887299</v>
       </c>
       <c r="H4" s="26">
-        <f>+D4/G4-1</f>
+        <f t="shared" si="0"/>
         <v>0.14162470636455304</v>
       </c>
       <c r="I4" s="8">
@@ -51590,21 +51652,21 @@
         <v>1.5</v>
       </c>
       <c r="K4" s="9">
-        <f>+I4*(D4-1)</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="L4" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="M4" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.8431372549019773E-2</v>
       </c>
       <c r="N4" s="9">
         <v>87.5</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -51624,14 +51686,14 @@
         <v>1.78</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.7988228999465079E-2</v>
       </c>
       <c r="G5" s="8">
         <v>2.0308170862631298</v>
       </c>
       <c r="H5" s="26">
-        <f>+D5/G5-1</f>
+        <f t="shared" si="0"/>
         <v>3.4066541100544079E-2</v>
       </c>
       <c r="I5" s="8">
@@ -51641,21 +51703,21 @@
         <v>1</v>
       </c>
       <c r="K5" s="9">
-        <f>+I5*(D5-1)</f>
+        <f t="shared" si="1"/>
         <v>62.7</v>
       </c>
       <c r="L5" s="9">
         <v>2.02</v>
       </c>
       <c r="M5" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9603960396039639E-2</v>
       </c>
       <c r="N5" s="9">
         <v>57</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -51675,14 +51737,14 @@
         <v>2.31</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.0184383517716924E-2</v>
       </c>
       <c r="G6" s="8">
         <v>1.51941257281289</v>
       </c>
       <c r="H6" s="26">
-        <f>+D6/G6-1</f>
+        <f t="shared" si="0"/>
         <v>6.6201523527538386E-2</v>
       </c>
       <c r="I6" s="8">
@@ -51692,21 +51754,21 @@
         <v>1</v>
       </c>
       <c r="K6" s="8">
-        <f>+I6*(D6-1)</f>
+        <f t="shared" si="1"/>
         <v>35.340000000000003</v>
       </c>
       <c r="L6" s="8">
         <v>1.72</v>
       </c>
       <c r="M6" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.8139534883720811E-2</v>
       </c>
       <c r="N6" s="8">
         <v>-57</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -51726,14 +51788,14 @@
         <v>1.56</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0130699391399673E-2</v>
       </c>
       <c r="G7" s="8">
         <v>2.40734864920142</v>
       </c>
       <c r="H7" s="26">
-        <f>+D7/G7-1</f>
+        <f t="shared" si="0"/>
         <v>6.7564517857658712E-2</v>
       </c>
       <c r="I7" s="8">
@@ -51743,328 +51805,537 @@
         <v>1</v>
       </c>
       <c r="K7" s="8">
-        <f>+I7*(D7-1)</f>
+        <f t="shared" si="1"/>
         <v>62.8</v>
       </c>
       <c r="L7" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="M7" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.8431372549019329E-3</v>
       </c>
       <c r="N7" s="8">
         <v>63</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="35">
         <v>44659</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="36">
         <v>2.58</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="36">
         <v>1.51</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="36">
+        <f t="shared" si="2"/>
+        <v>4.9848554853945348E-2</v>
+      </c>
+      <c r="G8" s="36">
+        <v>2.0059395019605799</v>
+      </c>
+      <c r="H8" s="38">
         <f t="shared" si="0"/>
-        <v>4.9848554853945348E-2</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2.0059395019605799</v>
-      </c>
-      <c r="H8" s="26">
-        <f>+D8/G8-1</f>
         <v>0.2861803646013954</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="36">
         <v>45</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="39">
         <v>2</v>
       </c>
-      <c r="K8" s="8">
-        <f>+I8*(D8-1)</f>
+      <c r="K8" s="36">
+        <f t="shared" si="1"/>
         <v>71.100000000000009</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8" t="s">
-        <v>122</v>
+      <c r="L8" s="36">
+        <v>2.7</v>
+      </c>
+      <c r="M8" s="38">
+        <f t="shared" si="3"/>
+        <v>-4.4444444444444509E-2</v>
+      </c>
+      <c r="N8" s="36">
+        <v>-45</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+      <c r="A9" s="35">
         <v>44659</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="36">
         <v>2.4</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="36">
         <v>1.61</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="36">
+        <f t="shared" si="2"/>
+        <v>3.7784679089026829E-2</v>
+      </c>
+      <c r="G9" s="36">
+        <v>2.1403318555766</v>
+      </c>
+      <c r="H9" s="38">
         <f t="shared" si="0"/>
-        <v>3.7784679089026829E-2</v>
-      </c>
-      <c r="G9" s="8">
-        <v>2.1403318555766</v>
-      </c>
-      <c r="H9" s="26">
-        <f>+D9/G9-1</f>
         <v>0.12132144076015061</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="36">
         <v>60</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="39">
         <v>1.5</v>
       </c>
-      <c r="K9" s="8">
-        <f>+I9*(D9-1)</f>
+      <c r="K9" s="36">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8" t="s">
-        <v>120</v>
+      <c r="L9" s="36">
+        <v>2.25</v>
+      </c>
+      <c r="M9" s="38">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+      <c r="N9" s="36">
+        <v>0</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="35">
         <v>44659</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="36">
         <v>1.67</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="36">
         <v>2.25</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="36">
+        <f t="shared" si="2"/>
+        <v>4.3246839654025315E-2</v>
+      </c>
+      <c r="G10" s="36">
+        <v>1.5129239326439601</v>
+      </c>
+      <c r="H10" s="38">
         <f t="shared" si="0"/>
-        <v>4.3246839654025315E-2</v>
-      </c>
-      <c r="G10">
-        <v>1.5129239326439601</v>
-      </c>
-      <c r="H10" s="26">
-        <f>+D10/G10-1</f>
         <v>0.10382284526462371</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="36">
         <v>85</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="39">
         <v>1.5</v>
       </c>
-      <c r="K10" s="8">
-        <f>+I10*(D10-1)</f>
+      <c r="K10" s="36">
+        <f t="shared" si="1"/>
         <v>56.949999999999996</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8" t="s">
-        <v>121</v>
+      <c r="L10" s="36">
+        <v>1.72</v>
+      </c>
+      <c r="M10" s="38">
+        <f t="shared" si="3"/>
+        <v>-2.9069767441860517E-2</v>
+      </c>
+      <c r="N10" s="36">
+        <f>141.95-85</f>
+        <v>56.949999999999989</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="A11" s="35">
         <v>44659</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="36">
         <v>2.15</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="36">
         <v>1.74</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="36">
+        <f t="shared" si="2"/>
+        <v>3.9828922747928264E-2</v>
+      </c>
+      <c r="G11" s="36">
+        <v>2.068899</v>
+      </c>
+      <c r="H11" s="38">
         <f t="shared" si="0"/>
-        <v>3.9828922747928264E-2</v>
-      </c>
-      <c r="G11">
-        <v>1.8665812052211901</v>
-      </c>
-      <c r="H11" s="26">
-        <f>+D11/G11-1</f>
-        <v>0.15183844881006636</v>
-      </c>
-      <c r="I11" s="8">
+        <v>3.9200076949140517E-2</v>
+      </c>
+      <c r="I11" s="36">
         <f>+ROUND((57*2)/(D11-1),0)</f>
         <v>99</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="39">
         <v>2</v>
       </c>
-      <c r="K11" s="8">
-        <f>+I11*(D11-1)</f>
+      <c r="K11" s="36">
+        <f t="shared" si="1"/>
         <v>113.85</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8" t="s">
-        <v>120</v>
+      <c r="L11" s="36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M11" s="38">
+        <f t="shared" si="3"/>
+        <v>-2.2727272727272818E-2</v>
+      </c>
+      <c r="N11" s="36">
+        <v>115</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="35">
         <v>44659</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="36">
         <v>1.55</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="36">
         <v>2.5</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="36">
+        <f t="shared" si="2"/>
+        <v>4.5161290322580649E-2</v>
+      </c>
+      <c r="G12" s="36">
+        <v>1.4197668325150601</v>
+      </c>
+      <c r="H12" s="38">
         <f t="shared" si="0"/>
-        <v>4.5161290322580649E-2</v>
-      </c>
-      <c r="G12">
-        <v>1.4197668325150601</v>
-      </c>
-      <c r="H12" s="26">
-        <f>+D12/G12-1</f>
         <v>9.1728560283548255E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="36">
         <v>57</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="36">
         <v>1</v>
       </c>
-      <c r="K12" s="8">
-        <f>+I12*(D12-1)</f>
+      <c r="K12" s="36">
+        <f t="shared" si="1"/>
         <v>31.35</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8" t="s">
-        <v>121</v>
+      <c r="L12" s="36">
+        <v>1.53</v>
+      </c>
+      <c r="M12" s="38">
+        <f t="shared" si="3"/>
+        <v>1.3071895424836555E-2</v>
+      </c>
+      <c r="N12" s="36">
+        <f>88.35-57</f>
+        <v>31.349999999999994</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="A13" s="35">
+        <v>44659</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="36">
+        <v>1.48</v>
+      </c>
+      <c r="E13" s="36">
+        <v>2.7</v>
+      </c>
+      <c r="F13" s="36">
+        <f t="shared" si="2"/>
+        <v>4.6046046046046119E-2</v>
+      </c>
+      <c r="G13" s="36">
+        <v>1.38365829337732</v>
+      </c>
+      <c r="H13" s="38">
+        <f t="shared" si="0"/>
+        <v>6.9628250763794419E-2</v>
+      </c>
+      <c r="I13" s="36">
+        <v>57</v>
+      </c>
+      <c r="J13" s="36">
+        <v>1</v>
+      </c>
+      <c r="K13" s="36">
+        <f t="shared" si="1"/>
+        <v>27.36</v>
+      </c>
+      <c r="L13" s="36">
+        <v>1.48</v>
+      </c>
+      <c r="M13" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="36">
+        <f>84.36-57</f>
+        <v>27.36</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="A14" s="35">
+        <v>44659</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="36">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E14" s="36">
+        <v>1.54</v>
+      </c>
+      <c r="F14" s="36">
+        <f t="shared" si="2"/>
+        <v>4.1507512095747323E-2</v>
+      </c>
+      <c r="G14" s="36">
+        <v>2.47044598969749</v>
+      </c>
+      <c r="H14" s="38">
+        <f t="shared" si="0"/>
+        <v>3.2202286807432534E-2</v>
+      </c>
+      <c r="I14" s="36">
+        <v>29</v>
+      </c>
+      <c r="J14" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="36">
+        <f t="shared" si="1"/>
+        <v>44.949999999999996</v>
+      </c>
+      <c r="L14" s="36">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="M14" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="36">
+        <v>-29</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="A15" s="35">
+        <v>44659</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="36">
+        <v>2.4</v>
+      </c>
+      <c r="E15" s="36">
+        <v>1.61</v>
+      </c>
+      <c r="F15" s="36">
+        <f t="shared" si="2"/>
+        <v>3.7784679089026829E-2</v>
+      </c>
+      <c r="G15" s="36">
+        <v>2.3559640000000002</v>
+      </c>
+      <c r="H15" s="38">
+        <f t="shared" si="0"/>
+        <v>1.8691287303201465E-2</v>
+      </c>
+      <c r="I15" s="36">
+        <v>20</v>
+      </c>
+      <c r="J15" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="36">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="L15" s="36">
+        <v>2.4</v>
+      </c>
+      <c r="M15" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="36">
+        <v>-20</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="A16" s="35">
+        <v>44659</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="36">
+        <v>2.65</v>
+      </c>
+      <c r="E16" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="36">
+        <f t="shared" si="2"/>
+        <v>4.4025157232704393E-2</v>
+      </c>
+      <c r="G16" s="36">
+        <v>2.2658100000000001</v>
+      </c>
+      <c r="H16" s="38">
+        <f t="shared" si="0"/>
+        <v>0.1695596718171426</v>
+      </c>
+      <c r="I16" s="36">
+        <v>70</v>
+      </c>
+      <c r="J16" s="36">
+        <v>2</v>
+      </c>
+      <c r="K16" s="36">
+        <f t="shared" si="1"/>
+        <v>115.5</v>
+      </c>
+      <c r="L16" s="36">
+        <v>2.65</v>
+      </c>
+      <c r="M16" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="36">
+        <v>-70</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="A17" s="35">
+        <v>44659</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="36">
+        <v>2.1</v>
+      </c>
+      <c r="E17" s="36">
+        <v>1.74</v>
+      </c>
+      <c r="F17" s="36">
+        <f t="shared" si="2"/>
+        <v>5.0903119868637159E-2</v>
+      </c>
+      <c r="G17" s="36">
+        <v>1.89889</v>
+      </c>
+      <c r="H17" s="38">
+        <f t="shared" ref="H17" si="4">+D17/G17-1</f>
+        <v>0.10590924171489657</v>
+      </c>
+      <c r="I17" s="36">
+        <v>85</v>
+      </c>
+      <c r="J17" s="36">
+        <v>2</v>
+      </c>
+      <c r="K17" s="36">
+        <f t="shared" ref="K17" si="5">+I17*(D17-1)</f>
+        <v>93.500000000000014</v>
+      </c>
+      <c r="L17" s="36">
+        <v>2.1</v>
+      </c>
+      <c r="M17" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="36">
+        <f>178.5-85</f>
+        <v>93.5</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
@@ -52436,11 +52707,11 @@
         <v>2.4615384615384501</v>
       </c>
       <c r="E2">
-        <f>+B2-C2</f>
+        <f t="shared" ref="E2:E31" si="0">+B2-C2</f>
         <v>1.5</v>
       </c>
       <c r="F2" s="6">
-        <f>+(B2-C2)/B2</f>
+        <f t="shared" ref="F2:F31" si="1">+(B2-C2)/B2</f>
         <v>2.2058823529411766E-2</v>
       </c>
       <c r="G2">
@@ -52467,11 +52738,11 @@
         <v>6.7045454545454604</v>
       </c>
       <c r="E3">
-        <f>+B3-C3</f>
+        <f t="shared" si="0"/>
         <v>2.2999999999999972</v>
       </c>
       <c r="F3" s="6">
-        <f>+(B3-C3)/B3</f>
+        <f t="shared" si="1"/>
         <v>2.4520255863539415E-2</v>
       </c>
       <c r="G3">
@@ -52498,11 +52769,11 @@
         <v>3.6363636363636398</v>
       </c>
       <c r="E4">
-        <f>+B4-C4</f>
+        <f t="shared" si="0"/>
         <v>0.89999999999999858</v>
       </c>
       <c r="F4" s="6">
-        <f>+(B4-C4)/B4</f>
+        <f t="shared" si="1"/>
         <v>1.4423076923076901E-2</v>
       </c>
       <c r="G4">
@@ -52529,11 +52800,11 @@
         <v>-6.7777777777777697</v>
       </c>
       <c r="E5">
-        <f>+B5-C5</f>
+        <f t="shared" si="0"/>
         <v>0.40000000000000568</v>
       </c>
       <c r="F5" s="6">
-        <f>+(B5-C5)/B5</f>
+        <f t="shared" si="1"/>
         <v>4.7114252061249192E-3</v>
       </c>
       <c r="G5">
@@ -52560,11 +52831,11 @@
         <v>-0.82758620689654405</v>
       </c>
       <c r="E6">
-        <f>+B6-C6</f>
+        <f t="shared" si="0"/>
         <v>-6.0999999999999943</v>
       </c>
       <c r="F6" s="6">
-        <f>+(B6-C6)/B6</f>
+        <f t="shared" si="1"/>
         <v>-8.789625360230538E-2</v>
       </c>
       <c r="G6">
@@ -52591,11 +52862,11 @@
         <v>-1.2021857923497199</v>
       </c>
       <c r="E7">
-        <f>+B7-C7</f>
+        <f t="shared" si="0"/>
         <v>-2.2999999999999972</v>
       </c>
       <c r="F7" s="6">
-        <f>+(B7-C7)/B7</f>
+        <f t="shared" si="1"/>
         <v>-2.5784753363228666E-2</v>
       </c>
       <c r="G7">
@@ -52619,11 +52890,11 @@
         <v>-1.12676056338028</v>
       </c>
       <c r="E8">
-        <f>+B8-C8</f>
+        <f t="shared" si="0"/>
         <v>-0.40000000000000568</v>
       </c>
       <c r="F8" s="6">
-        <f>+(B8-C8)/B8</f>
+        <f t="shared" si="1"/>
         <v>-5.5478502080444619E-3</v>
       </c>
       <c r="G8">
@@ -52647,11 +52918,11 @@
         <v>6.6666666666666599</v>
       </c>
       <c r="E9">
-        <f>+B9-C9</f>
+        <f t="shared" si="0"/>
         <v>3.5999999999999943</v>
       </c>
       <c r="F9" s="6">
-        <f>+(B9-C9)/B9</f>
+        <f t="shared" si="1"/>
         <v>4.494382022471903E-2</v>
       </c>
       <c r="G9">
@@ -52675,11 +52946,11 @@
         <v>-11.5492957746479</v>
       </c>
       <c r="E10">
-        <f>+B10-C10</f>
+        <f t="shared" si="0"/>
         <v>-2.9000000000000057</v>
       </c>
       <c r="F10" s="6">
-        <f>+(B10-C10)/B10</f>
+        <f t="shared" si="1"/>
         <v>-4.3543543543543631E-2</v>
       </c>
       <c r="G10">
@@ -52703,11 +52974,11 @@
         <v>10.709677419354801</v>
       </c>
       <c r="E11">
-        <f>+B11-C11</f>
+        <f t="shared" si="0"/>
         <v>0.59999999999999432</v>
       </c>
       <c r="F11" s="6">
-        <f>+(B11-C11)/B11</f>
+        <f t="shared" si="1"/>
         <v>7.49063670411978E-3</v>
       </c>
       <c r="G11">
@@ -52731,11 +53002,11 @@
         <v>2.0652173913043499</v>
       </c>
       <c r="E12">
-        <f>+B12-C12</f>
+        <f t="shared" si="0"/>
         <v>0.29999999999999716</v>
       </c>
       <c r="F12" s="6">
-        <f>+(B12-C12)/B12</f>
+        <f t="shared" si="1"/>
         <v>3.2327586206896248E-3</v>
       </c>
       <c r="G12">
@@ -52759,11 +53030,11 @@
         <v>1.7105263157894699</v>
       </c>
       <c r="E13">
-        <f>+B13-C13</f>
+        <f t="shared" si="0"/>
         <v>-0.90000000000000568</v>
       </c>
       <c r="F13" s="6">
-        <f>+(B13-C13)/B13</f>
+        <f t="shared" si="1"/>
         <v>-1.2064343163538951E-2</v>
       </c>
       <c r="G13">
@@ -52787,11 +53058,11 @@
         <v>6.78571428571429</v>
       </c>
       <c r="E14">
-        <f>+B14-C14</f>
+        <f t="shared" si="0"/>
         <v>2.9000000000000057</v>
       </c>
       <c r="F14" s="6">
-        <f>+(B14-C14)/B14</f>
+        <f t="shared" si="1"/>
         <v>3.3564814814814881E-2</v>
       </c>
       <c r="G14">
@@ -52815,11 +53086,11 @@
         <v>12.421052631578901</v>
       </c>
       <c r="E15">
-        <f>+B15-C15</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F15" s="6">
-        <f>+(B15-C15)/B15</f>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G15">
@@ -52843,11 +53114,11 @@
         <v>4.0789473684210504</v>
       </c>
       <c r="E16">
-        <f>+B16-C16</f>
+        <f t="shared" si="0"/>
         <v>5.7999999999999972</v>
       </c>
       <c r="F16" s="6">
-        <f>+(B16-C16)/B16</f>
+        <f t="shared" si="1"/>
         <v>7.0473876063183449E-2</v>
       </c>
       <c r="G16">
@@ -52871,11 +53142,11 @@
         <v>-3.7288135593220302</v>
       </c>
       <c r="E17">
-        <f>+B17-C17</f>
+        <f t="shared" si="0"/>
         <v>-6.5999999999999943</v>
       </c>
       <c r="F17" s="6">
-        <f>+(B17-C17)/B17</f>
+        <f t="shared" si="1"/>
         <v>-7.9613992762364222E-2</v>
       </c>
       <c r="G17">
@@ -52899,11 +53170,11 @@
         <v>15.4054054054054</v>
       </c>
       <c r="E18">
-        <f>+B18-C18</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="F18" s="6">
-        <f>+(B18-C18)/B18</f>
+        <f t="shared" si="1"/>
         <v>4.1176470588235294E-2</v>
       </c>
       <c r="G18">
@@ -52927,11 +53198,11 @@
         <v>3.1638418079095998</v>
       </c>
       <c r="E19">
-        <f>+B19-C19</f>
+        <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
       <c r="F19" s="6">
-        <f>+(B19-C19)/B19</f>
+        <f t="shared" si="1"/>
         <v>-2.2271714922049313E-3</v>
       </c>
       <c r="G19">
@@ -52955,11 +53226,11 @@
         <v>14.9462365591398</v>
       </c>
       <c r="E20">
-        <f>+B20-C20</f>
+        <f t="shared" si="0"/>
         <v>9.2999999999999972</v>
       </c>
       <c r="F20" s="6">
-        <f>+(B20-C20)/B20</f>
+        <f t="shared" si="1"/>
         <v>9.2261904761904739E-2</v>
       </c>
       <c r="G20">
@@ -52983,11 +53254,11 @@
         <v>-14.177215189873399</v>
       </c>
       <c r="E21">
-        <f>+B21-C21</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F21" s="6">
-        <f>+(B21-C21)/B21</f>
+        <f t="shared" si="1"/>
         <v>2.7972027972027972E-2</v>
       </c>
       <c r="G21">
@@ -53011,11 +53282,11 @@
         <v>-5.6626506024096397</v>
       </c>
       <c r="E22">
-        <f>+B22-C22</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="F22" s="6">
-        <f>+(B22-C22)/B22</f>
+        <f t="shared" si="1"/>
         <v>-2.3668639053254437E-2</v>
       </c>
       <c r="G22">
@@ -53039,11 +53310,11 @@
         <v>10.1538461538461</v>
       </c>
       <c r="E23">
-        <f>+B23-C23</f>
+        <f t="shared" si="0"/>
         <v>2.0999999999999943</v>
       </c>
       <c r="F23" s="6">
-        <f>+(B23-C23)/B23</f>
+        <f t="shared" si="1"/>
         <v>3.1065088757396369E-2</v>
       </c>
       <c r="G23">
@@ -53067,11 +53338,11 @@
         <v>-0.218579234972681</v>
       </c>
       <c r="E24">
-        <f>+B24-C24</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999943</v>
       </c>
       <c r="F24" s="6">
-        <f>+(B24-C24)/B24</f>
+        <f t="shared" si="1"/>
         <v>4.9945711183496139E-2</v>
       </c>
       <c r="G24">
@@ -53095,11 +53366,11 @@
         <v>5.9171597633136104</v>
       </c>
       <c r="E25">
-        <f>+B25-C25</f>
+        <f t="shared" si="0"/>
         <v>5.2000000000000028</v>
       </c>
       <c r="F25" s="6">
-        <f>+(B25-C25)/B25</f>
+        <f t="shared" si="1"/>
         <v>5.7971014492753652E-2</v>
       </c>
       <c r="G25">
@@ -53123,11 +53394,11 @@
         <v>6.4327485380117002</v>
       </c>
       <c r="E26">
-        <f>+B26-C26</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F26" s="6">
-        <f>+(B26-C26)/B26</f>
+        <f t="shared" si="1"/>
         <v>8.6486486486486491E-2</v>
       </c>
       <c r="G26">
@@ -53151,11 +53422,11 @@
         <v>-4.7674418604651096</v>
       </c>
       <c r="E27">
-        <f>+B27-C27</f>
+        <f t="shared" si="0"/>
         <v>-4.7000000000000028</v>
       </c>
       <c r="F27" s="6">
-        <f>+(B27-C27)/B27</f>
+        <f t="shared" si="1"/>
         <v>-5.8168316831683206E-2</v>
       </c>
       <c r="G27">
@@ -53179,11 +53450,11 @@
         <v>8.6033519553072697</v>
       </c>
       <c r="E28">
-        <f>+B28-C28</f>
+        <f t="shared" si="0"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="F28" s="6">
-        <f>+(B28-C28)/B28</f>
+        <f t="shared" si="1"/>
         <v>1.9292604501607687E-2</v>
       </c>
       <c r="G28">
@@ -53207,11 +53478,11 @@
         <v>8.5314685314685192</v>
       </c>
       <c r="E29">
-        <f>+B29-C29</f>
+        <f t="shared" si="0"/>
         <v>-0.79999999999999716</v>
       </c>
       <c r="F29" s="6">
-        <f>+(B29-C29)/B29</f>
+        <f t="shared" si="1"/>
         <v>-1.085481682496604E-2</v>
       </c>
       <c r="G29">
@@ -53235,11 +53506,11 @@
         <v>2.63736263736264</v>
       </c>
       <c r="E30">
-        <f>+B30-C30</f>
+        <f t="shared" si="0"/>
         <v>-2.4000000000000057</v>
       </c>
       <c r="F30" s="6">
-        <f>+(B30-C30)/B30</f>
+        <f t="shared" si="1"/>
         <v>-2.6637069922308611E-2</v>
       </c>
       <c r="G30">
@@ -53263,11 +53534,11 @@
         <v>11.0948905109489</v>
       </c>
       <c r="E31">
-        <f>+B31-C31</f>
+        <f t="shared" si="0"/>
         <v>3.5999999999999943</v>
       </c>
       <c r="F31" s="6">
-        <f>+(B31-C31)/B31</f>
+        <f t="shared" si="1"/>
         <v>4.7936085219706985E-2</v>
       </c>
       <c r="G31">

--- a/daily_betting/2022 bets.xlsx
+++ b/daily_betting/2022 bets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericp\OneDrive\Documents\GitHub\baseball model\daily_betting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96d8f57e66b541f6/Documents/GitHub/baseball model/daily_betting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4ED801-5970-4250-ACFA-1E61F7AEB366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{DC4ED801-5970-4250-ACFA-1E61F7AEB366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1880F675-E3C0-4EF1-8959-1EA51AFC0E9E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E39BF201-E179-4BA7-B60E-3B50FDE30F4C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E39BF201-E179-4BA7-B60E-3B50FDE30F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="accts" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16612" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16641" uniqueCount="117">
   <si>
     <t>bets</t>
   </si>
@@ -390,9 +390,6 @@
     <t>Odds Opponent</t>
   </si>
   <si>
-    <t>CLV Baseball</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
@@ -429,7 +426,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -671,7 +668,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -734,7 +731,12 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -742,12 +744,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.000"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -769,13 +783,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="eric peterson" refreshedDate="44666.663244212963" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="68" xr:uid="{0FB97242-949C-4CF1-840E-61BFCE776AC4}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="eric peterson" refreshedDate="44667.339380439815" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="78" xr:uid="{6C87AC35-DEB9-40BB-8560-9BCBFA8CFBCD}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:O69" sheet="baseball bets"/>
+    <worksheetSource ref="A1:O79" sheet="baseball bets"/>
   </cacheSource>
-  <cacheFields count="17">
+  <cacheFields count="15">
     <cacheField name="Date" numFmtId="16">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-04-07T00:00:00" maxDate="2022-04-15T00:00:00" count="8">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-04-07T00:00:00" maxDate="2022-04-16T00:00:00" count="9">
         <d v="2022-04-07T00:00:00"/>
         <d v="2022-04-08T00:00:00"/>
         <d v="2022-04-09T00:00:00"/>
@@ -784,6 +798,7 @@
         <d v="2022-04-12T00:00:00"/>
         <d v="2022-04-13T00:00:00"/>
         <d v="2022-04-14T00:00:00"/>
+        <d v="2022-04-15T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Home Team" numFmtId="0">
@@ -805,31 +820,25 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.0130699391399673E-2" maxValue="5.2079054269934755E-2"/>
     </cacheField>
     <cacheField name="Model Odds" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.34206" maxValue="2.8735300000000001"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.34206" maxValue="2.93"/>
     </cacheField>
     <cacheField name="American Model Odds" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-292.3463719815237" maxValue="187.35300000000001"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-292.3463719815237" maxValue="193.00000000000003"/>
     </cacheField>
     <cacheField name="Difference" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-8.6266007001486789E-2" maxValue="0.41529635795114039"/>
     </cacheField>
-    <cacheField name="Amount Bet" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="120"/>
+    <cacheField name="Amount Bet" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="17" maxValue="120"/>
     </cacheField>
     <cacheField name="Units" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.5" maxValue="2"/>
     </cacheField>
     <cacheField name="Win / Loss" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="12.759999999999998" maxValue="132.25"/>
-    </cacheField>
-    <cacheField name="Closing Number" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.48" maxValue="3"/>
-    </cacheField>
-    <cacheField name="CLV" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-5.8139534883720811E-2" maxValue="0.17021276595744683"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="12.759999999999998" maxValue="135"/>
     </cacheField>
     <cacheField name="Return" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-117" maxValue="132.25"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-117" maxValue="132.25"/>
     </cacheField>
     <cacheField name="Casino" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -844,7 +853,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="68">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="78">
   <r>
     <x v="0"/>
     <s v="KCR"/>
@@ -859,8 +868,6 @@
     <n v="85"/>
     <n v="1.5"/>
     <n v="69.7"/>
-    <n v="1.78"/>
-    <n v="2.2471910112359605E-2"/>
     <n v="-85"/>
     <s v="sb"/>
   </r>
@@ -878,8 +885,6 @@
     <n v="65"/>
     <n v="2"/>
     <n v="113.75"/>
-    <n v="2.35"/>
-    <n v="0.17021276595744683"/>
     <n v="-65"/>
     <s v="pb"/>
   </r>
@@ -897,8 +902,6 @@
     <n v="50"/>
     <n v="1.5"/>
     <n v="87.5"/>
-    <n v="2.5499999999999998"/>
-    <n v="7.8431372549019773E-2"/>
     <n v="87.5"/>
     <s v="pb"/>
   </r>
@@ -916,8 +919,6 @@
     <n v="57"/>
     <n v="1"/>
     <n v="62.7"/>
-    <n v="2.02"/>
-    <n v="3.9603960396039639E-2"/>
     <n v="57"/>
     <s v="lb"/>
   </r>
@@ -935,8 +936,6 @@
     <n v="57"/>
     <n v="1"/>
     <n v="35.340000000000003"/>
-    <n v="1.72"/>
-    <n v="-5.8139534883720811E-2"/>
     <n v="-57"/>
     <s v="sb"/>
   </r>
@@ -954,8 +953,6 @@
     <n v="40"/>
     <n v="1"/>
     <n v="62.8"/>
-    <n v="2.5499999999999998"/>
-    <n v="7.8431372549019329E-3"/>
     <n v="63"/>
     <s v="pb"/>
   </r>
@@ -973,8 +970,6 @@
     <n v="45"/>
     <n v="2"/>
     <n v="71.100000000000009"/>
-    <n v="2.7"/>
-    <n v="-4.4444444444444509E-2"/>
     <n v="-45"/>
     <s v="sb"/>
   </r>
@@ -992,8 +987,6 @@
     <n v="60"/>
     <n v="1.5"/>
     <n v="84"/>
-    <n v="2.25"/>
-    <n v="6.6666666666666652E-2"/>
     <n v="0"/>
     <s v="pb"/>
   </r>
@@ -1011,8 +1004,6 @@
     <n v="85"/>
     <n v="1.5"/>
     <n v="56.949999999999996"/>
-    <n v="1.72"/>
-    <n v="-2.9069767441860517E-2"/>
     <n v="56.949999999999989"/>
     <s v="lb"/>
   </r>
@@ -1030,8 +1021,6 @@
     <n v="99"/>
     <n v="2"/>
     <n v="113.85"/>
-    <n v="2.2000000000000002"/>
-    <n v="-2.2727272727272818E-2"/>
     <n v="115"/>
     <s v="pb"/>
   </r>
@@ -1049,8 +1038,6 @@
     <n v="57"/>
     <n v="1"/>
     <n v="31.35"/>
-    <n v="1.53"/>
-    <n v="1.3071895424836555E-2"/>
     <n v="31.349999999999994"/>
     <s v="lb"/>
   </r>
@@ -1068,8 +1055,6 @@
     <n v="57"/>
     <n v="1"/>
     <n v="27.36"/>
-    <n v="1.48"/>
-    <n v="0"/>
     <n v="27.36"/>
     <s v="lb"/>
   </r>
@@ -1087,8 +1072,6 @@
     <n v="29"/>
     <n v="0.5"/>
     <n v="44.949999999999996"/>
-    <n v="2.5499999999999998"/>
-    <n v="0"/>
     <n v="-29"/>
     <s v="pb"/>
   </r>
@@ -1106,8 +1089,6 @@
     <n v="20"/>
     <n v="0.5"/>
     <n v="28"/>
-    <n v="2.4"/>
-    <n v="0"/>
     <n v="-20"/>
     <s v="pb"/>
   </r>
@@ -1125,8 +1106,6 @@
     <n v="70"/>
     <n v="2"/>
     <n v="115.5"/>
-    <n v="2.65"/>
-    <n v="0"/>
     <n v="-70"/>
     <s v="pb"/>
   </r>
@@ -1144,8 +1123,6 @@
     <n v="85"/>
     <n v="2"/>
     <n v="93.500000000000014"/>
-    <n v="2.1"/>
-    <n v="0"/>
     <n v="93.5"/>
     <s v="sb"/>
   </r>
@@ -1163,8 +1140,6 @@
     <n v="25"/>
     <n v="0.5"/>
     <n v="28.749999999999996"/>
-    <m/>
-    <m/>
     <n v="-25"/>
     <s v="pb"/>
   </r>
@@ -1182,8 +1157,6 @@
     <n v="43"/>
     <n v="1"/>
     <n v="58.050000000000004"/>
-    <m/>
-    <m/>
     <n v="58.050000000000004"/>
     <s v="pb"/>
   </r>
@@ -1201,8 +1174,6 @@
     <n v="68"/>
     <n v="2"/>
     <n v="115.60000000000001"/>
-    <m/>
-    <m/>
     <n v="-68"/>
     <s v="sb"/>
   </r>
@@ -1220,8 +1191,6 @@
     <n v="29"/>
     <n v="0.5"/>
     <n v="12.759999999999998"/>
-    <m/>
-    <m/>
     <n v="12.76"/>
     <s v="lb"/>
   </r>
@@ -1239,8 +1208,6 @@
     <n v="66"/>
     <n v="2"/>
     <n v="115.5"/>
-    <m/>
-    <m/>
     <n v="-66"/>
     <s v="sb"/>
   </r>
@@ -1258,8 +1225,6 @@
     <n v="41"/>
     <n v="1"/>
     <n v="57.4"/>
-    <m/>
-    <m/>
     <n v="-41"/>
     <s v="pb"/>
   </r>
@@ -1277,8 +1242,6 @@
     <n v="41"/>
     <n v="1"/>
     <n v="63.54999999999999"/>
-    <m/>
-    <m/>
     <n v="-41"/>
     <s v="pb"/>
   </r>
@@ -1296,8 +1259,6 @@
     <n v="58"/>
     <n v="1"/>
     <n v="35.380000000000003"/>
-    <m/>
-    <m/>
     <n v="35.380000000000003"/>
     <s v="pb"/>
   </r>
@@ -1315,8 +1276,6 @@
     <n v="117"/>
     <n v="2"/>
     <n v="76.049999999999983"/>
-    <m/>
-    <m/>
     <n v="-117"/>
     <s v="pb"/>
   </r>
@@ -1334,8 +1293,6 @@
     <n v="60"/>
     <n v="2"/>
     <n v="115.19999999999999"/>
-    <n v="2.88"/>
-    <n v="1.388888888888884E-2"/>
     <n v="115.2"/>
     <s v="sb"/>
   </r>
@@ -1353,8 +1310,6 @@
     <n v="56"/>
     <n v="2"/>
     <n v="114.79999999999998"/>
-    <n v="3"/>
-    <n v="1.6666666666666607E-2"/>
     <n v="114.8"/>
     <s v="sb"/>
   </r>
@@ -1372,8 +1327,6 @@
     <n v="67"/>
     <n v="2"/>
     <n v="113.9"/>
-    <n v="2.63"/>
-    <n v="2.6615969581749166E-2"/>
     <n v="113.9"/>
     <s v="pb"/>
   </r>
@@ -1391,8 +1344,6 @@
     <n v="64"/>
     <n v="2"/>
     <n v="113.28"/>
-    <m/>
-    <m/>
     <n v="113.28"/>
     <s v="sb"/>
   </r>
@@ -1410,8 +1361,6 @@
     <n v="57"/>
     <n v="1"/>
     <n v="54.15"/>
-    <m/>
-    <m/>
     <n v="54.15"/>
     <s v="lb"/>
   </r>
@@ -1429,8 +1378,6 @@
     <n v="85"/>
     <n v="1.5"/>
     <n v="98.600000000000009"/>
-    <n v="2.25"/>
-    <n v="-3.9999999999999925E-2"/>
     <n v="-85"/>
     <m/>
   </r>
@@ -1448,8 +1395,6 @@
     <n v="85"/>
     <n v="1.5"/>
     <n v="44.2"/>
-    <n v="1.54"/>
-    <m/>
     <n v="44.2"/>
     <s v="lb"/>
   </r>
@@ -1467,8 +1412,6 @@
     <n v="29"/>
     <n v="0.5"/>
     <n v="25.519999999999996"/>
-    <m/>
-    <m/>
     <n v="25.519999999999996"/>
     <s v="lb"/>
   </r>
@@ -1486,8 +1429,6 @@
     <n v="29"/>
     <n v="0.5"/>
     <n v="20.299999999999997"/>
-    <m/>
-    <m/>
     <n v="-29"/>
     <s v="lb"/>
   </r>
@@ -1505,8 +1446,6 @@
     <n v="60"/>
     <n v="1"/>
     <n v="57"/>
-    <m/>
-    <m/>
     <n v="57"/>
     <s v="lb"/>
   </r>
@@ -1524,8 +1463,6 @@
     <n v="70"/>
     <n v="2"/>
     <n v="119.00000000000001"/>
-    <m/>
-    <m/>
     <n v="0"/>
     <s v="sb"/>
   </r>
@@ -1543,8 +1480,6 @@
     <n v="60"/>
     <n v="1"/>
     <n v="62.999999999999986"/>
-    <m/>
-    <m/>
     <n v="62.999999999999986"/>
     <s v="pb"/>
   </r>
@@ -1562,8 +1497,6 @@
     <n v="48"/>
     <n v="1.5"/>
     <n v="91.199999999999989"/>
-    <m/>
-    <m/>
     <n v="91.199999999999989"/>
     <s v="pb"/>
   </r>
@@ -1581,8 +1514,6 @@
     <n v="92"/>
     <n v="2"/>
     <n v="119.59999999999998"/>
-    <m/>
-    <m/>
     <n v="-92"/>
     <s v="pb"/>
   </r>
@@ -1600,8 +1531,6 @@
     <n v="30"/>
     <n v="0.5"/>
     <n v="25.500000000000004"/>
-    <m/>
-    <m/>
     <n v="-30"/>
     <s v="lb"/>
   </r>
@@ -1619,8 +1548,6 @@
     <n v="62"/>
     <n v="2"/>
     <n v="120.9"/>
-    <m/>
-    <m/>
     <n v="120.9"/>
     <s v="pb"/>
   </r>
@@ -1638,8 +1565,6 @@
     <n v="26"/>
     <n v="0.5"/>
     <n v="29.9"/>
-    <m/>
-    <m/>
     <n v="-26"/>
     <s v="sb"/>
   </r>
@@ -1657,8 +1582,6 @@
     <n v="92"/>
     <n v="2"/>
     <n v="120.52000000000001"/>
-    <m/>
-    <m/>
     <n v="120.52"/>
     <s v="sb"/>
   </r>
@@ -1676,8 +1599,6 @@
     <n v="20"/>
     <n v="0.5"/>
     <n v="35.599999999999994"/>
-    <m/>
-    <m/>
     <n v="-20"/>
     <s v="sb"/>
   </r>
@@ -1695,8 +1616,6 @@
     <n v="92"/>
     <n v="2"/>
     <n v="122.36000000000001"/>
-    <m/>
-    <m/>
     <n v="122.36000000000001"/>
     <s v="sb"/>
   </r>
@@ -1714,8 +1633,6 @@
     <n v="60"/>
     <n v="1"/>
     <n v="38.399999999999991"/>
-    <m/>
-    <m/>
     <n v="38.399999999999991"/>
     <s v="sb"/>
   </r>
@@ -1733,8 +1650,6 @@
     <n v="30"/>
     <n v="0.5"/>
     <n v="30"/>
-    <m/>
-    <m/>
     <n v="-30"/>
     <s v="pb"/>
   </r>
@@ -1752,8 +1667,6 @@
     <n v="42"/>
     <n v="1"/>
     <n v="60.48"/>
-    <m/>
-    <m/>
     <n v="-42"/>
     <s v="sb"/>
   </r>
@@ -1771,8 +1684,6 @@
     <n v="58"/>
     <n v="1.5"/>
     <n v="90.48"/>
-    <m/>
-    <m/>
     <n v="-58"/>
     <s v="sb"/>
   </r>
@@ -1790,8 +1701,6 @@
     <n v="44"/>
     <n v="1"/>
     <n v="61.160000000000004"/>
-    <m/>
-    <m/>
     <n v="61.160000000000004"/>
     <s v="sb"/>
   </r>
@@ -1809,8 +1718,6 @@
     <n v="43"/>
     <n v="1"/>
     <n v="60.199999999999996"/>
-    <m/>
-    <m/>
     <n v="-43"/>
     <s v="pb"/>
   </r>
@@ -1828,8 +1735,6 @@
     <n v="45"/>
     <n v="1"/>
     <n v="60.750000000000007"/>
-    <m/>
-    <m/>
     <n v="-45"/>
     <s v="pb"/>
   </r>
@@ -1847,8 +1752,6 @@
     <n v="30"/>
     <n v="0.5"/>
     <n v="28.2"/>
-    <m/>
-    <m/>
     <n v="-30"/>
     <s v="sb"/>
   </r>
@@ -1866,8 +1769,6 @@
     <n v="64"/>
     <n v="2"/>
     <n v="120.32"/>
-    <m/>
-    <m/>
     <n v="120.32"/>
     <s v="pb"/>
   </r>
@@ -1885,8 +1786,6 @@
     <n v="55"/>
     <n v="1"/>
     <n v="60.500000000000007"/>
-    <m/>
-    <m/>
     <n v="-55"/>
     <s v="lb"/>
   </r>
@@ -1904,8 +1803,6 @@
     <n v="55"/>
     <n v="1"/>
     <n v="60.500000000000007"/>
-    <m/>
-    <m/>
     <n v="60.500000000000007"/>
     <s v="pb"/>
   </r>
@@ -1923,8 +1820,6 @@
     <n v="120"/>
     <n v="2"/>
     <n v="115.19999999999999"/>
-    <m/>
-    <m/>
     <n v="115.19999999999999"/>
     <s v="sb"/>
   </r>
@@ -1942,8 +1837,6 @@
     <n v="30"/>
     <n v="0.5"/>
     <n v="33"/>
-    <m/>
-    <m/>
     <n v="-30"/>
     <s v="sb"/>
   </r>
@@ -1961,8 +1854,6 @@
     <n v="62"/>
     <n v="1.5"/>
     <n v="89.9"/>
-    <m/>
-    <m/>
     <n v="89.9"/>
     <s v="pb"/>
   </r>
@@ -1980,8 +1871,6 @@
     <n v="60"/>
     <n v="1"/>
     <n v="64.199999999999989"/>
-    <m/>
-    <m/>
     <n v="-60"/>
     <s v="sb"/>
   </r>
@@ -1999,8 +1888,6 @@
     <n v="54"/>
     <n v="1.5"/>
     <n v="100.44"/>
-    <m/>
-    <m/>
     <n v="100.44"/>
     <s v="sb"/>
   </r>
@@ -2018,8 +1905,6 @@
     <n v="80"/>
     <n v="1.5"/>
     <n v="100"/>
-    <m/>
-    <m/>
     <n v="-80"/>
     <s v="pb"/>
   </r>
@@ -2037,8 +1922,6 @@
     <n v="60"/>
     <n v="1"/>
     <n v="66.599999999999994"/>
-    <m/>
-    <m/>
     <n v="-60"/>
     <s v="sb"/>
   </r>
@@ -2056,8 +1939,6 @@
     <n v="33"/>
     <n v="0.5"/>
     <n v="30.36"/>
-    <m/>
-    <m/>
     <n v="30.36"/>
     <s v="sb"/>
   </r>
@@ -2075,8 +1956,6 @@
     <n v="115"/>
     <n v="2"/>
     <n v="132.25"/>
-    <m/>
-    <m/>
     <n v="132.25"/>
     <s v="pb"/>
   </r>
@@ -2094,8 +1973,6 @@
     <n v="51"/>
     <n v="1"/>
     <n v="66.3"/>
-    <m/>
-    <m/>
     <n v="66.3"/>
     <s v="pb"/>
   </r>
@@ -2113,8 +1990,6 @@
     <n v="90"/>
     <n v="1.5"/>
     <n v="99.899999999999991"/>
-    <m/>
-    <m/>
     <n v="99.899999999999991"/>
     <s v="sb"/>
   </r>
@@ -2132,20 +2007,188 @@
     <n v="44"/>
     <n v="1.5"/>
     <n v="99.88"/>
+    <n v="-44"/>
+    <s v="sb"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="BOS"/>
+    <s v="MIN"/>
+    <n v="2.1"/>
+    <n v="110.00000000000001"/>
+    <n v="1.75"/>
+    <n v="4.761904761904745E-2"/>
+    <n v="2.0457320000000001"/>
+    <n v="104.57320000000001"/>
+    <n v="2.6527423924541438E-2"/>
+    <n v="34"/>
+    <n v="0.5"/>
+    <n v="37.400000000000006"/>
+    <n v="37.400000000000006"/>
+    <s v="lb"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="NYM"/>
+    <s v="ARI"/>
+    <n v="3.07"/>
+    <n v="206.99999999999997"/>
+    <n v="1.38"/>
+    <n v="5.0370580182221847E-2"/>
+    <n v="2.93"/>
+    <n v="193.00000000000003"/>
+    <n v="4.778156996587013E-2"/>
+    <n v="17"/>
+    <n v="0.5"/>
+    <n v="35.19"/>
+    <n v="-17"/>
+    <s v="sb"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="MIA"/>
+    <s v="PHI"/>
+    <n v="2.15"/>
+    <n v="114.99999999999999"/>
+    <n v="1.74"/>
+    <n v="3.9828922747928264E-2"/>
+    <n v="2.0779700000000001"/>
+    <n v="107.79700000000001"/>
+    <n v="3.4663638069846847E-2"/>
+    <n v="34"/>
+    <n v="0.5"/>
+    <n v="39.099999999999994"/>
     <m/>
+    <s v="pb"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="BAL"/>
+    <s v="NYY"/>
+    <n v="1.5"/>
+    <n v="-200"/>
+    <n v="2.65"/>
+    <n v="4.4025157232704393E-2"/>
+    <n v="1.36852"/>
+    <n v="-271.35569304244007"/>
+    <n v="9.6074591529535569E-2"/>
+    <n v="68"/>
+    <n v="1"/>
+    <n v="34"/>
     <m/>
-    <n v="-44"/>
+    <s v="lb"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="TOR"/>
+    <s v="OAK"/>
+    <n v="2.7"/>
+    <n v="170.00000000000003"/>
+    <n v="1.49"/>
+    <n v="4.1511309967685817E-2"/>
+    <n v="2.1904699999999999"/>
+    <n v="119.047"/>
+    <n v="0.23261217912137599"/>
+    <n v="78"/>
+    <n v="2"/>
+    <n v="132.60000000000002"/>
+    <m/>
+    <s v="pb"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="CLE"/>
+    <s v="SFG"/>
+    <n v="2.35"/>
+    <n v="135"/>
+    <n v="1.63"/>
+    <n v="3.9028847408954404E-2"/>
+    <n v="2.1472959999999999"/>
+    <n v="114.72959999999999"/>
+    <n v="9.4399654262849797E-2"/>
+    <n v="60"/>
+    <n v="1"/>
+    <n v="81"/>
+    <m/>
+    <s v="pb"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="TEX"/>
+    <s v="LAA"/>
+    <n v="1.85"/>
+    <n v="-117.64705882352941"/>
+    <n v="1.98"/>
+    <n v="4.5591045591045543E-2"/>
+    <n v="1.8042899999999999"/>
+    <n v="-124.33326287781772"/>
+    <n v="2.5334064923044686E-2"/>
+    <n v="34"/>
+    <n v="0.5"/>
+    <n v="28.900000000000002"/>
+    <m/>
+    <s v="lb"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="KCR"/>
+    <s v="DET"/>
+    <n v="2.11"/>
+    <n v="110.99999999999999"/>
+    <n v="1.73"/>
+    <n v="5.1968331370024323E-2"/>
+    <n v="1.870355"/>
+    <n v="-114.89564602949372"/>
+    <n v="0.1281280826367186"/>
+    <n v="46"/>
+    <n v="1.5"/>
+    <n v="51.059999999999995"/>
+    <m/>
+    <s v="sb"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="MIL"/>
+    <s v="STL"/>
+    <n v="2.35"/>
+    <n v="135"/>
+    <n v="1.63"/>
+    <n v="3.9028847408954404E-2"/>
+    <n v="1.9824440000000001"/>
+    <n v="-101.78697208186929"/>
+    <n v="0.18540548938582879"/>
+    <n v="100"/>
+    <n v="2"/>
+    <n v="135"/>
+    <m/>
+    <s v="pb"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="COL"/>
+    <s v="CHC"/>
+    <n v="2.1"/>
+    <n v="110.00000000000001"/>
+    <n v="1.74"/>
+    <n v="5.0903119868637159E-2"/>
+    <n v="1.851772"/>
+    <n v="-117.40230953823324"/>
+    <n v="0.13404890018857629"/>
+    <n v="90"/>
+    <n v="1.5"/>
+    <n v="99.000000000000014"/>
+    <m/>
     <s v="sb"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8EF7B55-E3D8-45E6-A259-9C75B60CF002}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0855525B-48A5-4244-9D5A-568196803C7A}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
     <pivotField axis="axisRow" numFmtId="16" showAll="0">
-      <items count="9">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -2154,6 +2197,7 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2169,15 +2213,13 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="10">
     <i>
       <x/>
     </i>
@@ -2202,6 +2244,9 @@
     <i>
       <x v="7"/>
     </i>
+    <i>
+      <x v="8"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -2225,12 +2270,12 @@
   </colItems>
   <dataFields count="4">
     <dataField name="Sum of Amount Bet" fld="10" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of Return" fld="15" baseField="0" baseItem="0" numFmtId="44"/>
-    <dataField name="Average of Juice" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="171"/>
+    <dataField name="Sum of Return" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Average of Juice" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="166"/>
     <dataField name="Average of Difference" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="3">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2239,7 +2284,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2248,7 +2293,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2257,7 +2302,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2579,7 +2624,7 @@
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2728,13 +2773,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="31" t="e">
-        <f>+AVERAGE('baseball bets'!#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B12" s="31"/>
       <c r="D12" s="7"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
@@ -2747,10 +2786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73253593-899A-4223-8B6E-A582329A446C}">
-  <dimension ref="A3:F12"/>
+  <dimension ref="A3:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2766,19 +2805,19 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
         <v>110</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2918,24 +2957,41 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>109</v>
+      <c r="A12" s="32">
+        <v>44666</v>
       </c>
       <c r="B12" s="3">
-        <v>3958</v>
+        <v>561</v>
       </c>
       <c r="C12" s="4">
-        <v>1120.6099999999999</v>
+        <v>20.400000000000006</v>
       </c>
       <c r="D12" s="60">
-        <v>4.2540071960700775E-2</v>
+        <v>4.498752093972036E-2</v>
       </c>
       <c r="E12" s="31">
-        <v>0.12250251297764665</v>
-      </c>
-      <c r="F12" s="41">
+        <v>0.10049755940081881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4519</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1141.01</v>
+      </c>
+      <c r="D13" s="60">
+        <v>4.2853847470831492E-2</v>
+      </c>
+      <c r="E13" s="31">
+        <v>0.11968136508318157</v>
+      </c>
+      <c r="F13" s="41">
         <f>+GETPIVOTDATA("Sum of Return",$A$3)/GETPIVOTDATA("Sum of Amount Bet",$A$3)</f>
-        <v>0.2831253158160687</v>
+        <v>0.25249170170391677</v>
       </c>
     </row>
   </sheetData>
@@ -2947,9 +3003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E0F769-9637-47ED-B0C6-17F010F6EAC1}">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2982,7 +3038,7 @@
         <v>105</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>107</v>
@@ -2994,7 +3050,7 @@
         <v>89</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>92</v>
@@ -3050,7 +3106,7 @@
         <f t="shared" ref="J2:J16" si="0">+D2/H2-1</f>
         <v>0.1334522608726354</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="18">
         <v>85</v>
       </c>
       <c r="L2" s="9">
@@ -3103,7 +3159,7 @@
         <f t="shared" si="0"/>
         <v>0.26085563230136244</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="17">
         <v>65</v>
       </c>
       <c r="L3" s="9">
@@ -3156,7 +3212,7 @@
         <f t="shared" si="0"/>
         <v>0.14162470636455304</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="17">
         <v>50</v>
       </c>
       <c r="L4" s="9">
@@ -3208,7 +3264,7 @@
         <f t="shared" si="0"/>
         <v>3.4066541100544079E-2</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="17">
         <v>57</v>
       </c>
       <c r="L5" s="9">
@@ -3260,7 +3316,7 @@
         <f t="shared" si="0"/>
         <v>6.6201523527538386E-2</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="17">
         <v>57</v>
       </c>
       <c r="L6" s="9">
@@ -3312,7 +3368,7 @@
         <f t="shared" si="0"/>
         <v>6.7564517857658712E-2</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="17">
         <v>40</v>
       </c>
       <c r="L7" s="9">
@@ -3364,7 +3420,7 @@
         <f t="shared" si="0"/>
         <v>0.2861803646013954</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="63">
         <v>45</v>
       </c>
       <c r="L8" s="37">
@@ -3416,7 +3472,7 @@
         <f t="shared" si="0"/>
         <v>0.12132144076015061</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="63">
         <v>60</v>
       </c>
       <c r="L9" s="37">
@@ -3468,7 +3524,7 @@
         <f t="shared" si="0"/>
         <v>0.10382284526462371</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="63">
         <v>85</v>
       </c>
       <c r="L10" s="37">
@@ -3521,7 +3577,7 @@
         <f t="shared" si="0"/>
         <v>3.9200076949140517E-2</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="63">
         <f>+ROUND((57*2)/(D11-1),0)</f>
         <v>99</v>
       </c>
@@ -3574,7 +3630,7 @@
         <f t="shared" si="0"/>
         <v>9.1728560283548255E-2</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="63">
         <v>57</v>
       </c>
       <c r="L12" s="34">
@@ -3627,7 +3683,7 @@
         <f t="shared" si="0"/>
         <v>6.9628250763794419E-2</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="63">
         <v>57</v>
       </c>
       <c r="L13" s="34">
@@ -3680,7 +3736,7 @@
         <f t="shared" si="0"/>
         <v>3.2202286807432534E-2</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="63">
         <v>29</v>
       </c>
       <c r="L14" s="34">
@@ -3732,7 +3788,7 @@
         <f t="shared" si="0"/>
         <v>1.8691287303201465E-2</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="63">
         <v>20</v>
       </c>
       <c r="L15" s="34">
@@ -3784,7 +3840,7 @@
         <f t="shared" si="0"/>
         <v>0.1695596718171426</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="63">
         <v>70</v>
       </c>
       <c r="L16" s="34">
@@ -3836,14 +3892,14 @@
         <f t="shared" ref="J17:J23" si="5">+D17/H17-1</f>
         <v>0.10590924171489657</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="63">
         <v>85</v>
       </c>
       <c r="L17" s="34">
         <v>2</v>
       </c>
       <c r="M17" s="34">
-        <f t="shared" ref="M17:M69" si="6">+K17*(D17-1)</f>
+        <f t="shared" ref="M17:M79" si="6">+K17*(D17-1)</f>
         <v>93.500000000000014</v>
       </c>
       <c r="N17" s="34">
@@ -3889,7 +3945,7 @@
         <f t="shared" si="5"/>
         <v>2.1083716516765216E-2</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="17">
         <v>25</v>
       </c>
       <c r="L18" s="8">
@@ -3941,7 +3997,7 @@
         <f t="shared" si="5"/>
         <v>9.7960577410981076E-2</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="17">
         <v>43</v>
       </c>
       <c r="L19" s="8">
@@ -3994,7 +4050,7 @@
         <f t="shared" si="5"/>
         <v>0.21591073338725542</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="17">
         <v>68</v>
       </c>
       <c r="L20" s="8">
@@ -4047,7 +4103,7 @@
         <f t="shared" si="5"/>
         <v>4.6586166747341062E-2</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="17">
         <v>29</v>
       </c>
       <c r="L21" s="8">
@@ -4099,7 +4155,7 @@
         <f t="shared" si="5"/>
         <v>0.34385760053826431</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="17">
         <v>66</v>
       </c>
       <c r="L22" s="8">
@@ -4152,7 +4208,7 @@
         <f t="shared" si="5"/>
         <v>9.0476282242961004E-2</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="17">
         <v>41</v>
       </c>
       <c r="L23" s="8">
@@ -4201,10 +4257,10 @@
         <v>134</v>
       </c>
       <c r="J24" s="39">
-        <f t="shared" ref="J24:J69" si="7">+D24/H24-1</f>
+        <f t="shared" ref="J24:J79" si="7">+D24/H24-1</f>
         <v>8.9743589743589647E-2</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="17">
         <v>41</v>
       </c>
       <c r="L24" s="8">
@@ -4257,7 +4313,7 @@
         <f t="shared" si="7"/>
         <v>5.1399733035893957E-2</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="17">
         <v>58</v>
       </c>
       <c r="L25" s="8">
@@ -4310,7 +4366,7 @@
         <f t="shared" si="7"/>
         <v>0.16940247785754137</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="17">
         <v>117</v>
       </c>
       <c r="L26" s="8">
@@ -4363,7 +4419,7 @@
         <f t="shared" si="7"/>
         <v>0.41529635795114039</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="63">
         <v>60</v>
       </c>
       <c r="L27" s="34">
@@ -4415,7 +4471,7 @@
         <f t="shared" si="7"/>
         <v>0.34200969027621086</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="63">
         <v>56</v>
       </c>
       <c r="L28" s="34">
@@ -4467,7 +4523,7 @@
         <f t="shared" si="7"/>
         <v>0.14936893207034863</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="63">
         <v>67</v>
       </c>
       <c r="L29" s="34">
@@ -4519,7 +4575,7 @@
         <f t="shared" si="7"/>
         <v>0.18125209503268125</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="63">
         <v>64</v>
       </c>
       <c r="L30" s="34">
@@ -4571,7 +4627,7 @@
         <f t="shared" si="7"/>
         <v>6.1693678666526974E-2</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="63">
         <v>57</v>
       </c>
       <c r="L31" s="34">
@@ -4623,7 +4679,7 @@
         <f t="shared" si="7"/>
         <v>0.10640207265988288</v>
       </c>
-      <c r="K32" s="34">
+      <c r="K32" s="63">
         <v>85</v>
       </c>
       <c r="L32" s="34">
@@ -4673,7 +4729,7 @@
         <f t="shared" si="7"/>
         <v>0.13258721666691509</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="63">
         <v>85</v>
       </c>
       <c r="L33" s="34">
@@ -4725,7 +4781,7 @@
         <f t="shared" si="7"/>
         <v>2.834119266792734E-2</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="63">
         <v>29</v>
       </c>
       <c r="L34" s="34">
@@ -4778,7 +4834,7 @@
         <f t="shared" si="7"/>
         <v>2.1492195799624136E-2</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="63">
         <v>29</v>
       </c>
       <c r="L35" s="34">
@@ -4830,7 +4886,7 @@
         <f t="shared" si="7"/>
         <v>9.9926434665835506E-2</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="17">
         <v>60</v>
       </c>
       <c r="L36" s="8">
@@ -4883,7 +4939,7 @@
         <f t="shared" si="7"/>
         <v>0.29175381610072471</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="17">
         <v>70</v>
       </c>
       <c r="L37" s="8">
@@ -4935,7 +4991,7 @@
         <f t="shared" si="7"/>
         <v>4.695196533312207E-2</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="17">
         <v>60</v>
       </c>
       <c r="L38" s="8">
@@ -4988,7 +5044,7 @@
         <f t="shared" si="7"/>
         <v>0.10627950952907206</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="17">
         <v>48</v>
       </c>
       <c r="L39" s="8">
@@ -5041,7 +5097,7 @@
         <f t="shared" si="7"/>
         <v>0.33494687782043786</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="17">
         <v>92</v>
       </c>
       <c r="L40" s="8">
@@ -5093,7 +5149,7 @@
         <f t="shared" si="7"/>
         <v>3.5193211818437264E-2</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="17">
         <v>30</v>
       </c>
       <c r="L41" s="8">
@@ -5146,7 +5202,7 @@
         <f t="shared" si="7"/>
         <v>0.30162716632677289</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="17">
         <v>62</v>
       </c>
       <c r="L42" s="8">
@@ -5199,7 +5255,7 @@
         <f t="shared" si="7"/>
         <v>4.0504668962229706E-2</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="17">
         <v>26</v>
       </c>
       <c r="L43" s="8">
@@ -5252,7 +5308,7 @@
         <f t="shared" si="7"/>
         <v>0.27774462033560976</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="17">
         <v>92</v>
       </c>
       <c r="L44" s="8">
@@ -5304,7 +5360,7 @@
         <f t="shared" si="7"/>
         <v>2.2511059119161958E-2</v>
       </c>
-      <c r="K45" s="49">
+      <c r="K45" s="64">
         <v>20</v>
       </c>
       <c r="L45" s="49">
@@ -5357,7 +5413,7 @@
         <f t="shared" si="7"/>
         <v>0.37802796509626679</v>
       </c>
-      <c r="K46" s="49">
+      <c r="K46" s="64">
         <v>92</v>
       </c>
       <c r="L46" s="49">
@@ -5410,7 +5466,7 @@
         <f t="shared" si="7"/>
         <v>7.5461317164690511E-2</v>
       </c>
-      <c r="K47" s="49">
+      <c r="K47" s="64">
         <v>60</v>
       </c>
       <c r="L47" s="49">
@@ -5463,7 +5519,7 @@
         <f t="shared" si="7"/>
         <v>2.5929338090909582E-2</v>
       </c>
-      <c r="K48" s="49">
+      <c r="K48" s="64">
         <v>30</v>
       </c>
       <c r="L48" s="49">
@@ -5515,7 +5571,7 @@
         <f t="shared" si="7"/>
         <v>7.6600096894008596E-2</v>
       </c>
-      <c r="K49" s="49">
+      <c r="K49" s="64">
         <v>42</v>
       </c>
       <c r="L49" s="49">
@@ -5568,7 +5624,7 @@
         <f t="shared" si="7"/>
         <v>0.15018288357138987</v>
       </c>
-      <c r="K50" s="49">
+      <c r="K50" s="64">
         <v>58</v>
       </c>
       <c r="L50" s="49">
@@ -5620,7 +5676,7 @@
         <f t="shared" si="7"/>
         <v>6.0538087738893021E-2</v>
       </c>
-      <c r="K51" s="49">
+      <c r="K51" s="64">
         <v>44</v>
       </c>
       <c r="L51" s="49">
@@ -5673,7 +5729,7 @@
         <f t="shared" si="7"/>
         <v>-8.6266007001486789E-2</v>
       </c>
-      <c r="K52" s="49">
+      <c r="K52" s="64">
         <v>43</v>
       </c>
       <c r="L52" s="49">
@@ -5726,7 +5782,7 @@
         <f t="shared" si="7"/>
         <v>5.8558558558558405E-2</v>
       </c>
-      <c r="K53" s="49">
+      <c r="K53" s="64">
         <v>45</v>
       </c>
       <c r="L53" s="49">
@@ -5779,7 +5835,7 @@
         <f t="shared" si="7"/>
         <v>3.2926942248735269E-2</v>
       </c>
-      <c r="K54" s="49">
+      <c r="K54" s="64">
         <v>30</v>
       </c>
       <c r="L54" s="49">
@@ -5804,7 +5860,7 @@
         <v>21</v>
       </c>
       <c r="C55" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D55" s="56">
         <v>2.88</v>
@@ -5831,7 +5887,7 @@
         <f t="shared" si="7"/>
         <v>0.24675324675324672</v>
       </c>
-      <c r="K55" s="56">
+      <c r="K55" s="65">
         <v>64</v>
       </c>
       <c r="L55" s="56">
@@ -5884,7 +5940,7 @@
         <f t="shared" si="7"/>
         <v>9.375E-2</v>
       </c>
-      <c r="K56" s="56">
+      <c r="K56" s="65">
         <v>55</v>
       </c>
       <c r="L56" s="56">
@@ -5937,7 +5993,7 @@
         <f t="shared" si="7"/>
         <v>7.6923076923077094E-2</v>
       </c>
-      <c r="K57" s="56">
+      <c r="K57" s="65">
         <v>55</v>
       </c>
       <c r="L57" s="56">
@@ -5990,7 +6046,7 @@
         <f t="shared" si="7"/>
         <v>0.15976331360946738</v>
       </c>
-      <c r="K58" s="56">
+      <c r="K58" s="65">
         <v>120</v>
       </c>
       <c r="L58" s="56">
@@ -6043,7 +6099,7 @@
         <f t="shared" si="7"/>
         <v>3.4482758620689724E-2</v>
       </c>
-      <c r="K59" s="56">
+      <c r="K59" s="65">
         <v>30</v>
       </c>
       <c r="L59" s="56">
@@ -6096,7 +6152,7 @@
         <f t="shared" si="7"/>
         <v>0.10360360360360366</v>
       </c>
-      <c r="K60" s="56">
+      <c r="K60" s="65">
         <v>62</v>
       </c>
       <c r="L60" s="56">
@@ -6149,7 +6205,7 @@
         <f t="shared" si="7"/>
         <v>0.10223642172523961</v>
       </c>
-      <c r="K61" s="56">
+      <c r="K61" s="65">
         <v>60</v>
       </c>
       <c r="L61" s="56">
@@ -6202,7 +6258,7 @@
         <f t="shared" si="7"/>
         <v>0.10766847405112312</v>
       </c>
-      <c r="K62" s="49">
+      <c r="K62" s="64">
         <v>54</v>
       </c>
       <c r="L62" s="49">
@@ -6255,7 +6311,7 @@
         <f t="shared" si="7"/>
         <v>0.14187925920963673</v>
       </c>
-      <c r="K63" s="49">
+      <c r="K63" s="64">
         <v>80</v>
       </c>
       <c r="L63" s="49">
@@ -6308,7 +6364,7 @@
         <f t="shared" si="7"/>
         <v>5.039925127939604E-2</v>
       </c>
-      <c r="K64" s="49">
+      <c r="K64" s="64">
         <v>60</v>
       </c>
       <c r="L64" s="49">
@@ -6361,7 +6417,7 @@
         <f t="shared" si="7"/>
         <v>4.0012306812297282E-2</v>
       </c>
-      <c r="K65" s="49">
+      <c r="K65" s="64">
         <v>33</v>
       </c>
       <c r="L65" s="49">
@@ -6414,7 +6470,7 @@
         <f t="shared" si="7"/>
         <v>0.17900084339688238</v>
       </c>
-      <c r="K66" s="49">
+      <c r="K66" s="64">
         <v>115</v>
       </c>
       <c r="L66" s="49">
@@ -6446,28 +6502,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E67" s="49">
-        <f t="shared" ref="E67:E69" si="8">+IF(D67&gt;2,(D67-1)*100,-100/(D67-1))</f>
+        <f t="shared" ref="E67:E79" si="8">+IF(D67&gt;2,(D67-1)*100,-100/(D67-1))</f>
         <v>129.99999999999997</v>
       </c>
       <c r="F67" s="49">
         <v>1.65</v>
       </c>
       <c r="G67" s="49">
-        <f t="shared" ref="G67:G69" si="9">+((1/D67)+(1/F67)-1)</f>
+        <f t="shared" ref="G67:G79" si="9">+((1/D67)+(1/F67)-1)</f>
         <v>4.0843214756258295E-2</v>
       </c>
       <c r="H67" s="49">
         <v>2.0999140000000001</v>
       </c>
       <c r="I67" s="52">
-        <f t="shared" ref="I67:I69" si="10">+IF(H67&gt;2,(H67-1)*100,-100/(H67-1))</f>
+        <f t="shared" ref="I67:I79" si="10">+IF(H67&gt;2,(H67-1)*100,-100/(H67-1))</f>
         <v>109.9914</v>
       </c>
       <c r="J67" s="51">
         <f t="shared" si="7"/>
         <v>9.5282949682701235E-2</v>
       </c>
-      <c r="K67" s="49">
+      <c r="K67" s="64">
         <v>51</v>
       </c>
       <c r="L67" s="49">
@@ -6520,7 +6576,7 @@
         <f t="shared" si="7"/>
         <v>0.12417019190810574</v>
       </c>
-      <c r="K68" s="49">
+      <c r="K68" s="64">
         <v>90</v>
       </c>
       <c r="L68" s="49">
@@ -6573,7 +6629,7 @@
         <f t="shared" si="7"/>
         <v>0.13797315496967144</v>
       </c>
-      <c r="K69" s="49">
+      <c r="K69" s="64">
         <v>44</v>
       </c>
       <c r="L69" s="49">
@@ -6592,174 +6648,510 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
+      <c r="A70" s="30">
+        <v>44666</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="E70" s="8">
+        <f t="shared" si="8"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="F70" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="G70" s="8">
+        <f t="shared" si="9"/>
+        <v>4.761904761904745E-2</v>
+      </c>
+      <c r="H70" s="8">
+        <v>2.0457320000000001</v>
+      </c>
+      <c r="I70" s="61">
+        <f t="shared" si="10"/>
+        <v>104.57320000000001</v>
+      </c>
+      <c r="J70" s="39">
+        <f t="shared" si="7"/>
+        <v>2.6527423924541438E-2</v>
+      </c>
+      <c r="K70" s="17">
+        <v>34</v>
+      </c>
+      <c r="L70" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M70" s="8">
+        <f t="shared" si="6"/>
+        <v>37.400000000000006</v>
+      </c>
+      <c r="N70" s="8">
+        <f>+M70</f>
+        <v>37.400000000000006</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
+      <c r="A71" s="30">
+        <v>44666</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="8">
+        <v>3.07</v>
+      </c>
+      <c r="E71" s="8">
+        <f t="shared" si="8"/>
+        <v>206.99999999999997</v>
+      </c>
+      <c r="F71" s="8">
+        <v>1.38</v>
+      </c>
+      <c r="G71" s="8">
+        <f t="shared" si="9"/>
+        <v>5.0370580182221847E-2</v>
+      </c>
+      <c r="H71" s="8">
+        <v>2.93</v>
+      </c>
+      <c r="I71" s="8">
+        <f t="shared" si="10"/>
+        <v>193.00000000000003</v>
+      </c>
+      <c r="J71" s="39">
+        <f t="shared" si="7"/>
+        <v>4.778156996587013E-2</v>
+      </c>
+      <c r="K71" s="17">
+        <v>17</v>
+      </c>
+      <c r="L71" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M71" s="8">
+        <f t="shared" si="6"/>
+        <v>35.19</v>
+      </c>
+      <c r="N71" s="8">
+        <f>-K71</f>
+        <v>-17</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
+      <c r="A72" s="30">
+        <v>44666</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="8">
+        <v>2.15</v>
+      </c>
+      <c r="E72" s="8">
+        <f t="shared" si="8"/>
+        <v>114.99999999999999</v>
+      </c>
+      <c r="F72" s="8">
+        <v>1.74</v>
+      </c>
+      <c r="G72" s="8">
+        <f t="shared" si="9"/>
+        <v>3.9828922747928264E-2</v>
+      </c>
+      <c r="H72" s="8">
+        <v>2.0779700000000001</v>
+      </c>
+      <c r="I72" s="61">
+        <f t="shared" si="10"/>
+        <v>107.79700000000001</v>
+      </c>
+      <c r="J72" s="39">
+        <f t="shared" si="7"/>
+        <v>3.4663638069846847E-2</v>
+      </c>
+      <c r="K72" s="17">
+        <v>34</v>
+      </c>
+      <c r="L72" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M72" s="8">
+        <f t="shared" si="6"/>
+        <v>39.099999999999994</v>
+      </c>
       <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
+      <c r="O72" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
+      <c r="A73" s="30">
+        <v>44666</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E73" s="8">
+        <f t="shared" si="8"/>
+        <v>-200</v>
+      </c>
+      <c r="F73" s="8">
+        <v>2.65</v>
+      </c>
+      <c r="G73" s="8">
+        <f t="shared" si="9"/>
+        <v>4.4025157232704393E-2</v>
+      </c>
+      <c r="H73" s="8">
+        <v>1.36852</v>
+      </c>
+      <c r="I73" s="61">
+        <f t="shared" si="10"/>
+        <v>-271.35569304244007</v>
+      </c>
+      <c r="J73" s="39">
+        <f t="shared" si="7"/>
+        <v>9.6074591529535569E-2</v>
+      </c>
+      <c r="K73" s="17">
+        <v>68</v>
+      </c>
+      <c r="L73" s="8">
+        <v>1</v>
+      </c>
+      <c r="M73" s="8">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
       <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
+      <c r="O73" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
+      <c r="A74" s="30">
+        <v>44666</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="E74" s="8">
+        <f t="shared" si="8"/>
+        <v>170.00000000000003</v>
+      </c>
+      <c r="F74" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="G74" s="8">
+        <f t="shared" si="9"/>
+        <v>4.1511309967685817E-2</v>
+      </c>
+      <c r="H74" s="8">
+        <v>2.1904699999999999</v>
+      </c>
+      <c r="I74" s="61">
+        <f t="shared" si="10"/>
+        <v>119.047</v>
+      </c>
+      <c r="J74" s="39">
+        <f t="shared" si="7"/>
+        <v>0.23261217912137599</v>
+      </c>
+      <c r="K74" s="17">
+        <v>78</v>
+      </c>
+      <c r="L74" s="8">
+        <v>2</v>
+      </c>
+      <c r="M74" s="8">
+        <f t="shared" si="6"/>
+        <v>132.60000000000002</v>
+      </c>
       <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
+      <c r="O74" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
+      <c r="A75" s="30">
+        <v>44666</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="8">
+        <v>2.35</v>
+      </c>
+      <c r="E75" s="8">
+        <f t="shared" si="8"/>
+        <v>135</v>
+      </c>
+      <c r="F75" s="8">
+        <v>1.63</v>
+      </c>
+      <c r="G75" s="8">
+        <f t="shared" si="9"/>
+        <v>3.9028847408954404E-2</v>
+      </c>
+      <c r="H75" s="8">
+        <v>2.1472959999999999</v>
+      </c>
+      <c r="I75" s="61">
+        <f t="shared" si="10"/>
+        <v>114.72959999999999</v>
+      </c>
+      <c r="J75" s="39">
+        <f t="shared" si="7"/>
+        <v>9.4399654262849797E-2</v>
+      </c>
+      <c r="K75" s="17">
+        <v>60</v>
+      </c>
+      <c r="L75" s="8">
+        <v>1</v>
+      </c>
+      <c r="M75" s="8">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
       <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
+      <c r="O75" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
+      <c r="A76" s="30">
+        <v>44666</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="8">
+        <v>1.85</v>
+      </c>
+      <c r="E76" s="61">
+        <f t="shared" si="8"/>
+        <v>-117.64705882352941</v>
+      </c>
+      <c r="F76" s="8">
+        <v>1.98</v>
+      </c>
+      <c r="G76" s="8">
+        <f t="shared" si="9"/>
+        <v>4.5591045591045543E-2</v>
+      </c>
+      <c r="H76" s="8">
+        <v>1.8042899999999999</v>
+      </c>
+      <c r="I76" s="61">
+        <f t="shared" si="10"/>
+        <v>-124.33326287781772</v>
+      </c>
+      <c r="J76" s="39">
+        <f t="shared" si="7"/>
+        <v>2.5334064923044686E-2</v>
+      </c>
+      <c r="K76" s="17">
+        <v>34</v>
+      </c>
+      <c r="L76" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M76" s="8">
+        <f t="shared" si="6"/>
+        <v>28.900000000000002</v>
+      </c>
       <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
+      <c r="O76" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
+      <c r="A77" s="62">
+        <v>44666</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="8">
+        <v>2.11</v>
+      </c>
+      <c r="E77" s="8">
+        <f t="shared" si="8"/>
+        <v>110.99999999999999</v>
+      </c>
+      <c r="F77" s="8">
+        <v>1.73</v>
+      </c>
+      <c r="G77" s="8">
+        <f t="shared" si="9"/>
+        <v>5.1968331370024323E-2</v>
+      </c>
+      <c r="H77" s="8">
+        <v>1.870355</v>
+      </c>
+      <c r="I77" s="61">
+        <f t="shared" si="10"/>
+        <v>-114.89564602949372</v>
+      </c>
+      <c r="J77" s="39">
+        <f t="shared" si="7"/>
+        <v>0.1281280826367186</v>
+      </c>
+      <c r="K77" s="17">
+        <v>46</v>
+      </c>
+      <c r="L77" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M77" s="8">
+        <f t="shared" si="6"/>
+        <v>51.059999999999995</v>
+      </c>
       <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
+      <c r="O77" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
+      <c r="A78" s="30">
+        <v>44666</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="8">
+        <v>2.35</v>
+      </c>
+      <c r="E78" s="8">
+        <f t="shared" si="8"/>
+        <v>135</v>
+      </c>
+      <c r="F78" s="8">
+        <v>1.63</v>
+      </c>
+      <c r="G78" s="8">
+        <f t="shared" si="9"/>
+        <v>3.9028847408954404E-2</v>
+      </c>
+      <c r="H78" s="8">
+        <v>1.9824440000000001</v>
+      </c>
+      <c r="I78" s="61">
+        <f t="shared" si="10"/>
+        <v>-101.78697208186929</v>
+      </c>
+      <c r="J78" s="39">
+        <f t="shared" si="7"/>
+        <v>0.18540548938582879</v>
+      </c>
+      <c r="K78" s="17">
+        <v>100</v>
+      </c>
+      <c r="L78" s="8">
+        <v>2</v>
+      </c>
+      <c r="M78" s="8">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
       <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
+      <c r="O78" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
+      <c r="A79" s="30">
+        <v>44666</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="E79" s="8">
+        <f t="shared" si="8"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="F79" s="8">
+        <v>1.74</v>
+      </c>
+      <c r="G79" s="8">
+        <f t="shared" si="9"/>
+        <v>5.0903119868637159E-2</v>
+      </c>
+      <c r="H79" s="8">
+        <v>1.851772</v>
+      </c>
+      <c r="I79" s="61">
+        <f t="shared" si="10"/>
+        <v>-117.40230953823324</v>
+      </c>
+      <c r="J79" s="39">
+        <f t="shared" si="7"/>
+        <v>0.13404890018857629</v>
+      </c>
+      <c r="K79" s="17">
+        <v>90</v>
+      </c>
+      <c r="L79" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M79" s="8">
+        <f t="shared" si="6"/>
+        <v>99.000000000000014</v>
+      </c>
       <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
+      <c r="O79" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
